--- a/server/src/data/sampledata.xlsx
+++ b/server/src/data/sampledata.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Agent_system\p-agent-system\server\src\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EC9991-186F-46F2-BF57-A6EF785B98C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="495" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -19,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AA$501</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +25,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2023,16 +2018,16 @@
     <t>TOTAL (EG 30% of GGR, 2% of total bets)</t>
   </si>
   <si>
-    <t>cm9xx5vub000fv9akeqaq95by</t>
-  </si>
-  <si>
-    <t>cm9xxb2xr0010v9akh8qspvgg</t>
+    <t>cm9v4w7uk008fiocn7yvxz283</t>
+  </si>
+  <si>
+    <t>cm9v56bl10026iozcn9qlokqu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
@@ -2640,53 +2635,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R280" workbookViewId="0">
-      <selection activeCell="W295" sqref="W295"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="W317" sqref="W317"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="2"/>
+    <col min="23" max="23" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +2764,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <v>716019323</v>
       </c>
@@ -2846,7 +2841,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>685309795</v>
       </c>
@@ -2923,7 +2918,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>960552293</v>
       </c>
@@ -3000,7 +2995,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>125181251</v>
       </c>
@@ -3074,7 +3069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>344485243</v>
       </c>
@@ -3151,7 +3146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>358868717</v>
       </c>
@@ -3228,7 +3223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>365055317</v>
       </c>
@@ -3305,7 +3300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>466849204</v>
       </c>
@@ -3382,7 +3377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <v>577799495</v>
       </c>
@@ -3459,7 +3454,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <v>350035715</v>
       </c>
@@ -3536,7 +3531,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <v>867536164</v>
       </c>
@@ -3610,7 +3605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <v>916307713</v>
       </c>
@@ -3687,7 +3682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <v>479686249</v>
       </c>
@@ -3761,7 +3756,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <v>340092959</v>
       </c>
@@ -3838,7 +3833,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>151403515</v>
       </c>
@@ -3915,7 +3910,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>845280410</v>
       </c>
@@ -3992,7 +3987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>645482293</v>
       </c>
@@ -4069,7 +4064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>322439374</v>
       </c>
@@ -4146,7 +4141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>947912767</v>
       </c>
@@ -4223,7 +4218,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>636037648</v>
       </c>
@@ -4300,7 +4295,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>263950584</v>
       </c>
@@ -4377,7 +4372,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>167039211</v>
       </c>
@@ -4451,7 +4446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <v>580322910</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>980973218</v>
       </c>
@@ -4602,7 +4597,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>533920119</v>
       </c>
@@ -4679,7 +4674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>74</v>
       </c>
@@ -4757,7 +4752,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>77</v>
       </c>
@@ -4913,7 +4908,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>78</v>
       </c>
@@ -4991,7 +4986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
@@ -5071,7 +5066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>85</v>
       </c>
@@ -5151,7 +5146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
@@ -5231,7 +5226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>89</v>
       </c>
@@ -5311,7 +5306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>90</v>
       </c>
@@ -5391,7 +5386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>91</v>
       </c>
@@ -5471,7 +5466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>92</v>
       </c>
@@ -5551,7 +5546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -5631,7 +5626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>94</v>
       </c>
@@ -5711,7 +5706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>95</v>
       </c>
@@ -5791,7 +5786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -5871,7 +5866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>97</v>
       </c>
@@ -5951,7 +5946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>98</v>
       </c>
@@ -6031,7 +6026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>99</v>
       </c>
@@ -6111,7 +6106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>100</v>
       </c>
@@ -6191,7 +6186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>101</v>
       </c>
@@ -6271,7 +6266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>102</v>
       </c>
@@ -6351,7 +6346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
@@ -6431,7 +6426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>104</v>
       </c>
@@ -6511,7 +6506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -6591,7 +6586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>106</v>
       </c>
@@ -6671,7 +6666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
@@ -6751,7 +6746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
@@ -6831,7 +6826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>109</v>
       </c>
@@ -6911,7 +6906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>110</v>
       </c>
@@ -6991,7 +6986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>111</v>
       </c>
@@ -7071,7 +7066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>112</v>
       </c>
@@ -7151,7 +7146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>113</v>
       </c>
@@ -7231,7 +7226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>114</v>
       </c>
@@ -7311,7 +7306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>115</v>
       </c>
@@ -7391,7 +7386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
@@ -7471,7 +7466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>117</v>
       </c>
@@ -7551,7 +7546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>118</v>
       </c>
@@ -7631,7 +7626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>119</v>
       </c>
@@ -7711,7 +7706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>120</v>
       </c>
@@ -7791,7 +7786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>121</v>
       </c>
@@ -7871,7 +7866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>122</v>
       </c>
@@ -7951,7 +7946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>123</v>
       </c>
@@ -8031,7 +8026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>124</v>
       </c>
@@ -8111,7 +8106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>125</v>
       </c>
@@ -8191,7 +8186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>126</v>
       </c>
@@ -8271,7 +8266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>127</v>
       </c>
@@ -8351,7 +8346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>128</v>
       </c>
@@ -8431,7 +8426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>129</v>
       </c>
@@ -8511,7 +8506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>130</v>
       </c>
@@ -8591,7 +8586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>131</v>
       </c>
@@ -8671,7 +8666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>132</v>
       </c>
@@ -8751,7 +8746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>133</v>
       </c>
@@ -8831,7 +8826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>134</v>
       </c>
@@ -8911,7 +8906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>135</v>
       </c>
@@ -8991,7 +8986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>136</v>
       </c>
@@ -9071,7 +9066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>137</v>
       </c>
@@ -9151,7 +9146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>138</v>
       </c>
@@ -9231,7 +9226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>139</v>
       </c>
@@ -9311,7 +9306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>140</v>
       </c>
@@ -9391,7 +9386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>141</v>
       </c>
@@ -9471,7 +9466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>142</v>
       </c>
@@ -9551,7 +9546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>143</v>
       </c>
@@ -9631,7 +9626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>144</v>
       </c>
@@ -9711,7 +9706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>145</v>
       </c>
@@ -9791,7 +9786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>146</v>
       </c>
@@ -9871,7 +9866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>147</v>
       </c>
@@ -9951,7 +9946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>148</v>
       </c>
@@ -10031,7 +10026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>149</v>
       </c>
@@ -10111,7 +10106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>150</v>
       </c>
@@ -10191,7 +10186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>151</v>
       </c>
@@ -10271,7 +10266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>152</v>
       </c>
@@ -10351,7 +10346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>153</v>
       </c>
@@ -10431,7 +10426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>154</v>
       </c>
@@ -10511,7 +10506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>155</v>
       </c>
@@ -10591,7 +10586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>156</v>
       </c>
@@ -10671,7 +10666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>157</v>
       </c>
@@ -10751,7 +10746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>158</v>
       </c>
@@ -10831,7 +10826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>159</v>
       </c>
@@ -10911,7 +10906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>160</v>
       </c>
@@ -10991,7 +10986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>161</v>
       </c>
@@ -11071,7 +11066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>162</v>
       </c>
@@ -11151,7 +11146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>163</v>
       </c>
@@ -11231,7 +11226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>164</v>
       </c>
@@ -11311,7 +11306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>165</v>
       </c>
@@ -11391,7 +11386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>166</v>
       </c>
@@ -11471,7 +11466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>167</v>
       </c>
@@ -11551,7 +11546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>168</v>
       </c>
@@ -11631,7 +11626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>169</v>
       </c>
@@ -11711,7 +11706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>170</v>
       </c>
@@ -11791,7 +11786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>171</v>
       </c>
@@ -11871,7 +11866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>172</v>
       </c>
@@ -11951,7 +11946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>173</v>
       </c>
@@ -12031,7 +12026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>174</v>
       </c>
@@ -12111,7 +12106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>175</v>
       </c>
@@ -12191,7 +12186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>176</v>
       </c>
@@ -12271,7 +12266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>177</v>
       </c>
@@ -12351,7 +12346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>178</v>
       </c>
@@ -12431,7 +12426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>179</v>
       </c>
@@ -12511,7 +12506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>180</v>
       </c>
@@ -12591,7 +12586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>181</v>
       </c>
@@ -12671,7 +12666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>182</v>
       </c>
@@ -12751,7 +12746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>183</v>
       </c>
@@ -12831,7 +12826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>184</v>
       </c>
@@ -12911,7 +12906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>185</v>
       </c>
@@ -12991,7 +12986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>186</v>
       </c>
@@ -13071,7 +13066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>187</v>
       </c>
@@ -13151,7 +13146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>188</v>
       </c>
@@ -13231,7 +13226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>189</v>
       </c>
@@ -13311,7 +13306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>190</v>
       </c>
@@ -13391,7 +13386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>191</v>
       </c>
@@ -13471,7 +13466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>192</v>
       </c>
@@ -13551,7 +13546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>193</v>
       </c>
@@ -13631,7 +13626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>194</v>
       </c>
@@ -13711,7 +13706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>195</v>
       </c>
@@ -13791,7 +13786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>196</v>
       </c>
@@ -13871,7 +13866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>197</v>
       </c>
@@ -13951,7 +13946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>198</v>
       </c>
@@ -14031,7 +14026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>199</v>
       </c>
@@ -14111,7 +14106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>200</v>
       </c>
@@ -14191,7 +14186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A146" s="9" t="s">
         <v>201</v>
       </c>
@@ -14271,7 +14266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A147" s="9" t="s">
         <v>202</v>
       </c>
@@ -14351,7 +14346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A148" s="9" t="s">
         <v>203</v>
       </c>
@@ -14431,7 +14426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A149" s="9" t="s">
         <v>204</v>
       </c>
@@ -14511,7 +14506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A150" s="9" t="s">
         <v>205</v>
       </c>
@@ -14591,7 +14586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A151" s="9" t="s">
         <v>206</v>
       </c>
@@ -14671,7 +14666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>207</v>
       </c>
@@ -14751,7 +14746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>208</v>
       </c>
@@ -14831,7 +14826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A154" s="9" t="s">
         <v>209</v>
       </c>
@@ -14911,7 +14906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A155" s="9" t="s">
         <v>210</v>
       </c>
@@ -14991,7 +14986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A156" s="9" t="s">
         <v>211</v>
       </c>
@@ -15071,7 +15066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A157" s="9" t="s">
         <v>212</v>
       </c>
@@ -15151,7 +15146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A158" s="9" t="s">
         <v>213</v>
       </c>
@@ -15231,7 +15226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>214</v>
       </c>
@@ -15311,7 +15306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>215</v>
       </c>
@@ -15391,7 +15386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>216</v>
       </c>
@@ -15471,7 +15466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>217</v>
       </c>
@@ -15551,7 +15546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>218</v>
       </c>
@@ -15631,7 +15626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>219</v>
       </c>
@@ -15711,7 +15706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>220</v>
       </c>
@@ -15791,7 +15786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A166" s="9" t="s">
         <v>221</v>
       </c>
@@ -15871,7 +15866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A167" s="9" t="s">
         <v>222</v>
       </c>
@@ -15951,7 +15946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A168" s="9" t="s">
         <v>223</v>
       </c>
@@ -16031,7 +16026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A169" s="9" t="s">
         <v>224</v>
       </c>
@@ -16111,7 +16106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A170" s="9" t="s">
         <v>225</v>
       </c>
@@ -16191,7 +16186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A171" s="9" t="s">
         <v>226</v>
       </c>
@@ -16271,7 +16266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A172" s="9" t="s">
         <v>227</v>
       </c>
@@ -16351,7 +16346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A173" s="9" t="s">
         <v>228</v>
       </c>
@@ -16431,7 +16426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A174" s="9" t="s">
         <v>229</v>
       </c>
@@ -16511,7 +16506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A175" s="9" t="s">
         <v>230</v>
       </c>
@@ -16591,7 +16586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>231</v>
       </c>
@@ -16671,7 +16666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A177" s="9" t="s">
         <v>232</v>
       </c>
@@ -16751,7 +16746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>233</v>
       </c>
@@ -16831,7 +16826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>234</v>
       </c>
@@ -16911,7 +16906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>235</v>
       </c>
@@ -16991,7 +16986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>236</v>
       </c>
@@ -17071,7 +17066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>237</v>
       </c>
@@ -17151,7 +17146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>238</v>
       </c>
@@ -17231,7 +17226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>239</v>
       </c>
@@ -17311,7 +17306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>240</v>
       </c>
@@ -17391,7 +17386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>241</v>
       </c>
@@ -17471,7 +17466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>242</v>
       </c>
@@ -17551,7 +17546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A188" s="9" t="s">
         <v>243</v>
       </c>
@@ -17631,7 +17626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A189" s="9" t="s">
         <v>244</v>
       </c>
@@ -17711,7 +17706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A190" s="9" t="s">
         <v>245</v>
       </c>
@@ -17791,7 +17786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A191" s="9" t="s">
         <v>246</v>
       </c>
@@ -17871,7 +17866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A192" s="9" t="s">
         <v>247</v>
       </c>
@@ -17951,7 +17946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A193" s="9" t="s">
         <v>248</v>
       </c>
@@ -18031,7 +18026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A194" s="9" t="s">
         <v>249</v>
       </c>
@@ -18111,7 +18106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A195" s="9" t="s">
         <v>250</v>
       </c>
@@ -18191,7 +18186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A196" s="9" t="s">
         <v>251</v>
       </c>
@@ -18271,7 +18266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A197" s="9" t="s">
         <v>252</v>
       </c>
@@ -18351,7 +18346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>253</v>
       </c>
@@ -18431,7 +18426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>254</v>
       </c>
@@ -18511,7 +18506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>255</v>
       </c>
@@ -18591,7 +18586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>256</v>
       </c>
@@ -18671,7 +18666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>257</v>
       </c>
@@ -18751,7 +18746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="9" t="s">
         <v>258</v>
       </c>
@@ -18831,7 +18826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="9" t="s">
         <v>259</v>
       </c>
@@ -18911,7 +18906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="9" t="s">
         <v>260</v>
       </c>
@@ -18991,7 +18986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="9" t="s">
         <v>261</v>
       </c>
@@ -19071,7 +19066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="9" t="s">
         <v>262</v>
       </c>
@@ -19151,7 +19146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A208" s="9" t="s">
         <v>263</v>
       </c>
@@ -19231,7 +19226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A209" s="9" t="s">
         <v>264</v>
       </c>
@@ -19311,7 +19306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A210" s="9" t="s">
         <v>265</v>
       </c>
@@ -19391,7 +19386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A211" s="9" t="s">
         <v>266</v>
       </c>
@@ -19471,7 +19466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>267</v>
       </c>
@@ -19551,7 +19546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A213" s="9" t="s">
         <v>268</v>
       </c>
@@ -19631,7 +19626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A214" s="9" t="s">
         <v>269</v>
       </c>
@@ -19711,7 +19706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A215" s="9" t="s">
         <v>270</v>
       </c>
@@ -19791,7 +19786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216" s="9" t="s">
         <v>271</v>
       </c>
@@ -19871,7 +19866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>272</v>
       </c>
@@ -19951,7 +19946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>273</v>
       </c>
@@ -20031,7 +20026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A219" s="9" t="s">
         <v>274</v>
       </c>
@@ -20111,7 +20106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>275</v>
       </c>
@@ -20191,7 +20186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>276</v>
       </c>
@@ -20271,7 +20266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>277</v>
       </c>
@@ -20351,7 +20346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>278</v>
       </c>
@@ -20431,7 +20426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>279</v>
       </c>
@@ -20511,7 +20506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>280</v>
       </c>
@@ -20591,7 +20586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>281</v>
       </c>
@@ -20671,7 +20666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>282</v>
       </c>
@@ -20751,7 +20746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>283</v>
       </c>
@@ -20831,7 +20826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A229" s="9" t="s">
         <v>284</v>
       </c>
@@ -20911,7 +20906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A230" s="9" t="s">
         <v>285</v>
       </c>
@@ -20991,7 +20986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A231" s="9" t="s">
         <v>286</v>
       </c>
@@ -21071,7 +21066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A232" s="9" t="s">
         <v>287</v>
       </c>
@@ -21151,7 +21146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A233" s="9" t="s">
         <v>288</v>
       </c>
@@ -21231,7 +21226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A234" s="9" t="s">
         <v>289</v>
       </c>
@@ -21311,7 +21306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A235" s="9" t="s">
         <v>290</v>
       </c>
@@ -21391,7 +21386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A236" s="9" t="s">
         <v>291</v>
       </c>
@@ -21471,7 +21466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>292</v>
       </c>
@@ -21551,7 +21546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>293</v>
       </c>
@@ -21631,7 +21626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>294</v>
       </c>
@@ -21711,7 +21706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>295</v>
       </c>
@@ -21791,7 +21786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>296</v>
       </c>
@@ -21871,7 +21866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>297</v>
       </c>
@@ -21951,7 +21946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A243" s="9" t="s">
         <v>298</v>
       </c>
@@ -22031,7 +22026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>299</v>
       </c>
@@ -22111,7 +22106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>300</v>
       </c>
@@ -22191,7 +22186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A246" s="9" t="s">
         <v>301</v>
       </c>
@@ -22271,7 +22266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A247" s="9" t="s">
         <v>302</v>
       </c>
@@ -22351,7 +22346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>303</v>
       </c>
@@ -22431,7 +22426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A249" s="9" t="s">
         <v>304</v>
       </c>
@@ -22511,7 +22506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A250" s="9" t="s">
         <v>305</v>
       </c>
@@ -22591,7 +22586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>306</v>
       </c>
@@ -22671,7 +22666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A252" s="9" t="s">
         <v>307</v>
       </c>
@@ -22751,7 +22746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A253" s="9" t="s">
         <v>308</v>
       </c>
@@ -22831,7 +22826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>309</v>
       </c>
@@ -22911,7 +22906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A255" s="9" t="s">
         <v>310</v>
       </c>
@@ -22991,7 +22986,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>311</v>
       </c>
@@ -23071,7 +23066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>312</v>
       </c>
@@ -23151,7 +23146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A258" s="9" t="s">
         <v>313</v>
       </c>
@@ -23231,7 +23226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A259" s="9" t="s">
         <v>314</v>
       </c>
@@ -23311,7 +23306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>315</v>
       </c>
@@ -23391,7 +23386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>316</v>
       </c>
@@ -23471,7 +23466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A262" s="9" t="s">
         <v>317</v>
       </c>
@@ -23551,7 +23546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A263" s="9" t="s">
         <v>318</v>
       </c>
@@ -23631,7 +23626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A264" s="9" t="s">
         <v>319</v>
       </c>
@@ -23711,7 +23706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>320</v>
       </c>
@@ -23791,7 +23786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A266" s="9" t="s">
         <v>321</v>
       </c>
@@ -23871,7 +23866,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A267" s="9" t="s">
         <v>322</v>
       </c>
@@ -23951,7 +23946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>323</v>
       </c>
@@ -24031,7 +24026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>324</v>
       </c>
@@ -24111,7 +24106,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A270" s="9" t="s">
         <v>325</v>
       </c>
@@ -24191,7 +24186,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A271" s="9" t="s">
         <v>326</v>
       </c>
@@ -24271,7 +24266,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A272" s="9" t="s">
         <v>327</v>
       </c>
@@ -24351,7 +24346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>328</v>
       </c>
@@ -24431,7 +24426,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A274" s="9" t="s">
         <v>329</v>
       </c>
@@ -24511,7 +24506,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>330</v>
       </c>
@@ -24591,7 +24586,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="11" t="s">
         <v>331</v>
       </c>
@@ -24672,7 +24667,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="11" t="s">
         <v>335</v>
       </c>
@@ -24751,7 +24746,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="11" t="s">
         <v>337</v>
       </c>
@@ -24830,7 +24825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="11" t="s">
         <v>338</v>
       </c>
@@ -24911,7 +24906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="11" t="s">
         <v>341</v>
       </c>
@@ -24990,7 +24985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="11" t="s">
         <v>343</v>
       </c>
@@ -25069,7 +25064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="11" t="s">
         <v>344</v>
       </c>
@@ -25150,7 +25145,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="11" t="s">
         <v>345</v>
       </c>
@@ -25231,7 +25226,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="11" t="s">
         <v>346</v>
       </c>
@@ -25312,7 +25307,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="11" t="s">
         <v>349</v>
       </c>
@@ -25393,7 +25388,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="286" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="11">
         <v>68395402</v>
       </c>
@@ -25471,7 +25466,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="11">
         <v>268674073</v>
       </c>
@@ -25549,7 +25544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="11">
         <v>163098956</v>
       </c>
@@ -25627,7 +25622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="11">
         <v>150564666</v>
       </c>
@@ -25705,7 +25700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="11">
         <v>844109825</v>
       </c>
@@ -25783,7 +25778,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="11">
         <v>524768582</v>
       </c>
@@ -25861,7 +25856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="11">
         <v>334759451</v>
       </c>
@@ -25939,7 +25934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="11">
         <v>654691481</v>
       </c>
@@ -26017,7 +26012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="11">
         <v>215114644</v>
       </c>
@@ -26095,7 +26090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="11">
         <v>150434560</v>
       </c>
@@ -26173,7 +26168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="11">
         <v>721572518</v>
       </c>
@@ -26251,7 +26246,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="11">
         <v>517640138</v>
       </c>
@@ -26329,7 +26324,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="11">
         <v>320740464</v>
       </c>
@@ -26407,7 +26402,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="11">
         <v>745586424</v>
       </c>
@@ -26485,7 +26480,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="11">
         <v>655744342</v>
       </c>
@@ -26563,7 +26558,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="11">
         <v>565874752</v>
       </c>
@@ -26641,7 +26636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="11" t="s">
         <v>367</v>
       </c>
@@ -26722,7 +26717,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="11" t="s">
         <v>368</v>
       </c>
@@ -26803,7 +26798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="11" t="s">
         <v>369</v>
       </c>
@@ -26884,7 +26879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="11" t="s">
         <v>370</v>
       </c>
@@ -26965,7 +26960,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="11" t="s">
         <v>371</v>
       </c>
@@ -27046,7 +27041,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
         <v>372</v>
       </c>
@@ -27127,7 +27122,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="11" t="s">
         <v>373</v>
       </c>
@@ -27208,7 +27203,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="11" t="s">
         <v>374</v>
       </c>
@@ -27289,7 +27284,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="11" t="s">
         <v>375</v>
       </c>
@@ -27370,7 +27365,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="11" t="s">
         <v>376</v>
       </c>
@@ -27451,7 +27446,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>377</v>
       </c>
@@ -27532,7 +27527,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="11" t="s">
         <v>378</v>
       </c>
@@ -27613,7 +27608,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="11" t="s">
         <v>379</v>
       </c>
@@ -27694,7 +27689,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="11" t="s">
         <v>380</v>
       </c>
@@ -27775,7 +27770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="316" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="11" t="s">
         <v>381</v>
       </c>
@@ -27856,7 +27851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="317" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="11" t="s">
         <v>382</v>
       </c>
@@ -27937,7 +27932,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="11" t="s">
         <v>383</v>
       </c>
@@ -28018,7 +28013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="11" t="s">
         <v>384</v>
       </c>
@@ -28099,7 +28094,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="11" t="s">
         <v>385</v>
       </c>
@@ -28180,7 +28175,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="11" t="s">
         <v>386</v>
       </c>
@@ -28261,7 +28256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="11" t="s">
         <v>387</v>
       </c>
@@ -28342,7 +28337,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="11" t="s">
         <v>388</v>
       </c>
@@ -28423,7 +28418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="11" t="s">
         <v>389</v>
       </c>
@@ -28504,7 +28499,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="11" t="s">
         <v>390</v>
       </c>
@@ -28585,7 +28580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="11" t="s">
         <v>391</v>
       </c>
@@ -28666,7 +28661,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="11" t="s">
         <v>392</v>
       </c>
@@ -28747,7 +28742,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="11" t="s">
         <v>393</v>
       </c>
@@ -28828,7 +28823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="329" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="11" t="s">
         <v>394</v>
       </c>
@@ -28909,7 +28904,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="11" t="s">
         <v>395</v>
       </c>
@@ -28990,7 +28985,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="11" t="s">
         <v>396</v>
       </c>
@@ -29071,7 +29066,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="11" t="s">
         <v>397</v>
       </c>
@@ -29152,7 +29147,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="333" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="11" t="s">
         <v>398</v>
       </c>
@@ -29233,7 +29228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="11" t="s">
         <v>399</v>
       </c>
@@ -29314,7 +29309,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="11" t="s">
         <v>400</v>
       </c>
@@ -29395,7 +29390,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="11" t="s">
         <v>401</v>
       </c>
@@ -29476,7 +29471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="11" t="s">
         <v>402</v>
       </c>
@@ -29557,7 +29552,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="11" t="s">
         <v>403</v>
       </c>
@@ -29638,7 +29633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="11" t="s">
         <v>404</v>
       </c>
@@ -29719,7 +29714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="11" t="s">
         <v>405</v>
       </c>
@@ -29800,7 +29795,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="11" t="s">
         <v>406</v>
       </c>
@@ -29881,7 +29876,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="11" t="s">
         <v>407</v>
       </c>
@@ -29962,7 +29957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="11" t="s">
         <v>408</v>
       </c>
@@ -30043,7 +30038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="11" t="s">
         <v>409</v>
       </c>
@@ -30124,7 +30119,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="11" t="s">
         <v>410</v>
       </c>
@@ -30205,7 +30200,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="346" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="11" t="s">
         <v>411</v>
       </c>
@@ -30286,7 +30281,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="11" t="s">
         <v>412</v>
       </c>
@@ -30367,7 +30362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="11" t="s">
         <v>413</v>
       </c>
@@ -30448,7 +30443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="11" t="s">
         <v>414</v>
       </c>
@@ -30529,7 +30524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="11" t="s">
         <v>415</v>
       </c>
@@ -30610,7 +30605,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="11" t="s">
         <v>416</v>
       </c>
@@ -30691,7 +30686,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="11" t="s">
         <v>417</v>
       </c>
@@ -30772,7 +30767,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="11" t="s">
         <v>418</v>
       </c>
@@ -30853,7 +30848,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="11" t="s">
         <v>419</v>
       </c>
@@ -30934,7 +30929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="11" t="s">
         <v>420</v>
       </c>
@@ -31015,7 +31010,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="11" t="s">
         <v>421</v>
       </c>
@@ -31096,7 +31091,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="11" t="s">
         <v>422</v>
       </c>
@@ -31177,7 +31172,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="11" t="s">
         <v>423</v>
       </c>
@@ -31258,7 +31253,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="11" t="s">
         <v>424</v>
       </c>
@@ -31339,7 +31334,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="11" t="s">
         <v>425</v>
       </c>
@@ -31420,7 +31415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="11" t="s">
         <v>426</v>
       </c>
@@ -31501,7 +31496,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="11" t="s">
         <v>427</v>
       </c>
@@ -31582,7 +31577,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="11" t="s">
         <v>428</v>
       </c>
@@ -31663,7 +31658,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="11" t="s">
         <v>429</v>
       </c>
@@ -31744,7 +31739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>430</v>
       </c>
@@ -31825,7 +31820,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="11" t="s">
         <v>431</v>
       </c>
@@ -31906,7 +31901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="11" t="s">
         <v>432</v>
       </c>
@@ -31987,7 +31982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="368" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="11" t="s">
         <v>433</v>
       </c>
@@ -32068,7 +32063,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="11" t="s">
         <v>434</v>
       </c>
@@ -32149,7 +32144,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="11" t="s">
         <v>435</v>
       </c>
@@ -32230,7 +32225,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="11" t="s">
         <v>436</v>
       </c>
@@ -32311,7 +32306,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="11" t="s">
         <v>437</v>
       </c>
@@ -32392,7 +32387,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="11" t="s">
         <v>438</v>
       </c>
@@ -32473,7 +32468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="11" t="s">
         <v>439</v>
       </c>
@@ -32554,7 +32549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="11" t="s">
         <v>440</v>
       </c>
@@ -32635,7 +32630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="11" t="s">
         <v>441</v>
       </c>
@@ -32716,7 +32711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="11" t="s">
         <v>442</v>
       </c>
@@ -32797,7 +32792,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="11" t="s">
         <v>443</v>
       </c>
@@ -32878,7 +32873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="11" t="s">
         <v>444</v>
       </c>
@@ -32959,7 +32954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="380" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="11" t="s">
         <v>445</v>
       </c>
@@ -33040,7 +33035,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="11" t="s">
         <v>446</v>
       </c>
@@ -33121,7 +33116,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="11" t="s">
         <v>447</v>
       </c>
@@ -33202,7 +33197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="11" t="s">
         <v>448</v>
       </c>
@@ -33283,7 +33278,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="384" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="11" t="s">
         <v>449</v>
       </c>
@@ -33364,7 +33359,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="385" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="11" t="s">
         <v>450</v>
       </c>
@@ -33445,7 +33440,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="11" t="s">
         <v>451</v>
       </c>
@@ -33526,7 +33521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="11" t="s">
         <v>452</v>
       </c>
@@ -33607,7 +33602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A388" s="11" t="s">
         <v>453</v>
       </c>
@@ -33688,7 +33683,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A389" s="11" t="s">
         <v>454</v>
       </c>
@@ -33769,7 +33764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A390" s="11" t="s">
         <v>455</v>
       </c>
@@ -33850,7 +33845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="391" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A391" s="11" t="s">
         <v>456</v>
       </c>
@@ -33931,7 +33926,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A392" s="11" t="s">
         <v>457</v>
       </c>
@@ -34012,7 +34007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="393" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A393" s="11" t="s">
         <v>458</v>
       </c>
@@ -34093,7 +34088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="394" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A394" s="11" t="s">
         <v>459</v>
       </c>
@@ -34174,7 +34169,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="395" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A395" s="11" t="s">
         <v>460</v>
       </c>
@@ -34255,7 +34250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="396" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A396" s="11" t="s">
         <v>461</v>
       </c>
@@ -34336,7 +34331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="397" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A397" s="11" t="s">
         <v>462</v>
       </c>
@@ -34417,7 +34412,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A398" s="11" t="s">
         <v>463</v>
       </c>
@@ -34498,7 +34493,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="399" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A399" s="11" t="s">
         <v>464</v>
       </c>
@@ -34579,7 +34574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="400" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A400" s="11" t="s">
         <v>465</v>
       </c>
@@ -34660,7 +34655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="401" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A401" s="11" t="s">
         <v>466</v>
       </c>
@@ -34741,7 +34736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="402" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A402" s="11" t="s">
         <v>467</v>
       </c>
@@ -34822,7 +34817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="403" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A403" s="11" t="s">
         <v>468</v>
       </c>
@@ -34903,7 +34898,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="404" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A404" s="11" t="s">
         <v>469</v>
       </c>
@@ -34984,7 +34979,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A405" s="11" t="s">
         <v>470</v>
       </c>
@@ -35065,7 +35060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A406" s="11" t="s">
         <v>471</v>
       </c>
@@ -35146,7 +35141,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="407" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A407" s="11" t="s">
         <v>472</v>
       </c>
@@ -35227,7 +35222,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="408" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A408" s="11" t="s">
         <v>473</v>
       </c>
@@ -35308,7 +35303,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A409" s="11" t="s">
         <v>474</v>
       </c>
@@ -35389,7 +35384,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A410" s="11" t="s">
         <v>475</v>
       </c>
@@ -35470,7 +35465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A411" s="11" t="s">
         <v>476</v>
       </c>
@@ -35551,7 +35546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A412" s="11" t="s">
         <v>477</v>
       </c>
@@ -35632,7 +35627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A413" s="11" t="s">
         <v>478</v>
       </c>
@@ -35713,7 +35708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A414" s="11" t="s">
         <v>479</v>
       </c>
@@ -35794,7 +35789,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A415" s="11" t="s">
         <v>480</v>
       </c>
@@ -35875,7 +35870,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="416" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A416" s="11" t="s">
         <v>481</v>
       </c>
@@ -35956,7 +35951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="417" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="11" t="s">
         <v>482</v>
       </c>
@@ -36037,7 +36032,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="418" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A418" s="11" t="s">
         <v>483</v>
       </c>
@@ -36118,7 +36113,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A419" s="11" t="s">
         <v>484</v>
       </c>
@@ -36199,7 +36194,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A420" s="11" t="s">
         <v>485</v>
       </c>
@@ -36280,7 +36275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11" t="s">
         <v>486</v>
       </c>
@@ -36361,7 +36356,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="422" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="11" t="s">
         <v>487</v>
       </c>
@@ -36442,7 +36437,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="423" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="11" t="s">
         <v>488</v>
       </c>
@@ -36523,7 +36518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="424" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="11" t="s">
         <v>489</v>
       </c>
@@ -36604,7 +36599,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="425" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11" t="s">
         <v>490</v>
       </c>
@@ -36685,7 +36680,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="426" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="11" t="s">
         <v>491</v>
       </c>
@@ -36766,7 +36761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A427" s="11" t="s">
         <v>492</v>
       </c>
@@ -36847,7 +36842,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="428" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A428" s="11" t="s">
         <v>493</v>
       </c>
@@ -36928,7 +36923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="429" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A429" s="11" t="s">
         <v>494</v>
       </c>
@@ -37009,7 +37004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="430" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A430" s="11" t="s">
         <v>495</v>
       </c>
@@ -37090,7 +37085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A431" s="11" t="s">
         <v>496</v>
       </c>
@@ -37171,7 +37166,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="432" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A432" s="11" t="s">
         <v>497</v>
       </c>
@@ -37252,7 +37247,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="433" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A433" s="11" t="s">
         <v>498</v>
       </c>
@@ -37333,7 +37328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="434" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A434" s="11" t="s">
         <v>499</v>
       </c>
@@ -37414,7 +37409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="435" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A435" s="11" t="s">
         <v>500</v>
       </c>
@@ -37495,7 +37490,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A436" s="11" t="s">
         <v>501</v>
       </c>
@@ -37576,7 +37571,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="437" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A437" s="11" t="s">
         <v>502</v>
       </c>
@@ -37657,7 +37652,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A438" s="11" t="s">
         <v>503</v>
       </c>
@@ -37738,7 +37733,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="439" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A439" s="11" t="s">
         <v>504</v>
       </c>
@@ -37819,7 +37814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="440" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A440" s="11" t="s">
         <v>505</v>
       </c>
@@ -37900,7 +37895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="441" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A441" s="11" t="s">
         <v>506</v>
       </c>
@@ -37981,7 +37976,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="442" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A442" s="11" t="s">
         <v>507</v>
       </c>
@@ -38062,7 +38057,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="443" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A443" s="11" t="s">
         <v>508</v>
       </c>
@@ -38143,7 +38138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A444" s="11" t="s">
         <v>509</v>
       </c>
@@ -38224,7 +38219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="445" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A445" s="11" t="s">
         <v>510</v>
       </c>
@@ -38305,7 +38300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="446" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A446" s="11" t="s">
         <v>511</v>
       </c>
@@ -38386,7 +38381,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="447" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A447" s="11" t="s">
         <v>512</v>
       </c>
@@ -38467,7 +38462,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="11" t="s">
         <v>513</v>
       </c>
@@ -38548,7 +38543,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A449" s="11" t="s">
         <v>514</v>
       </c>
@@ -38629,7 +38624,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A450" s="11" t="s">
         <v>515</v>
       </c>
@@ -38710,7 +38705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="451" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A451" s="11" t="s">
         <v>516</v>
       </c>
@@ -38791,7 +38786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="452" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A452" s="11" t="s">
         <v>517</v>
       </c>
@@ -38872,7 +38867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A453" s="11" t="s">
         <v>518</v>
       </c>
@@ -38953,7 +38948,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="454" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A454" s="11" t="s">
         <v>519</v>
       </c>
@@ -39034,7 +39029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="455" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A455" s="11" t="s">
         <v>520</v>
       </c>
@@ -39115,7 +39110,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="456" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A456" s="11" t="s">
         <v>521</v>
       </c>
@@ -39196,7 +39191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A457" s="11" t="s">
         <v>522</v>
       </c>
@@ -39277,7 +39272,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A458" s="11" t="s">
         <v>523</v>
       </c>
@@ -39358,7 +39353,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A459" s="11" t="s">
         <v>524</v>
       </c>
@@ -39439,7 +39434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A460" s="11" t="s">
         <v>525</v>
       </c>
@@ -39520,7 +39515,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A461" s="11" t="s">
         <v>526</v>
       </c>
@@ -39601,7 +39596,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="462" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A462" s="11" t="s">
         <v>527</v>
       </c>
@@ -39682,7 +39677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A463" s="11" t="s">
         <v>528</v>
       </c>
@@ -39763,7 +39758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="464" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A464" s="11" t="s">
         <v>529</v>
       </c>
@@ -39844,7 +39839,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A465" s="11" t="s">
         <v>530</v>
       </c>
@@ -39925,7 +39920,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="466" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A466" s="11" t="s">
         <v>531</v>
       </c>
@@ -40006,7 +40001,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A467" s="11" t="s">
         <v>532</v>
       </c>
@@ -40087,7 +40082,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="468" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A468" s="11" t="s">
         <v>533</v>
       </c>
@@ -40168,7 +40163,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="469" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A469" s="11" t="s">
         <v>534</v>
       </c>
@@ -40249,7 +40244,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A470" s="11" t="s">
         <v>535</v>
       </c>
@@ -40330,7 +40325,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A471" s="11" t="s">
         <v>536</v>
       </c>
@@ -40411,7 +40406,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="472" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A472" s="11" t="s">
         <v>537</v>
       </c>
@@ -40492,7 +40487,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A473" s="11" t="s">
         <v>538</v>
       </c>
@@ -40573,7 +40568,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="474" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A474" s="11" t="s">
         <v>539</v>
       </c>
@@ -40654,7 +40649,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A475" s="11" t="s">
         <v>540</v>
       </c>
@@ -40735,7 +40730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="476" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A476" s="11" t="s">
         <v>541</v>
       </c>
@@ -40816,7 +40811,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="477" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A477" s="11" t="s">
         <v>542</v>
       </c>
@@ -40897,7 +40892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="478" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A478" s="11" t="s">
         <v>543</v>
       </c>
@@ -40978,7 +40973,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="479" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A479" s="11" t="s">
         <v>544</v>
       </c>
@@ -41059,7 +41054,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A480" s="11" t="s">
         <v>545</v>
       </c>
@@ -41140,7 +41135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="481" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A481" s="11" t="s">
         <v>546</v>
       </c>
@@ -41221,7 +41216,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="482" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A482" s="11" t="s">
         <v>547</v>
       </c>
@@ -41302,7 +41297,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="483" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A483" s="11" t="s">
         <v>548</v>
       </c>
@@ -41383,7 +41378,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A484" s="11" t="s">
         <v>549</v>
       </c>
@@ -41464,7 +41459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A485" s="11" t="s">
         <v>550</v>
       </c>
@@ -41545,7 +41540,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A486" s="11" t="s">
         <v>551</v>
       </c>
@@ -41626,7 +41621,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="11" t="s">
         <v>552</v>
       </c>
@@ -41707,7 +41702,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="11" t="s">
         <v>553</v>
       </c>
@@ -41788,7 +41783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="11" t="s">
         <v>554</v>
       </c>
@@ -41869,7 +41864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="490" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="11" t="s">
         <v>555</v>
       </c>
@@ -41950,7 +41945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="11" t="s">
         <v>556</v>
       </c>
@@ -42031,7 +42026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="11" t="s">
         <v>557</v>
       </c>
@@ -42112,7 +42107,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A493" s="11" t="s">
         <v>558</v>
       </c>
@@ -42193,7 +42188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A494" s="11" t="s">
         <v>559</v>
       </c>
@@ -42274,7 +42269,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="495" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A495" s="11" t="s">
         <v>560</v>
       </c>
@@ -42355,7 +42350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="496" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A496" s="11" t="s">
         <v>561</v>
       </c>
@@ -42436,7 +42431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A497" s="11" t="s">
         <v>562</v>
       </c>
@@ -42517,7 +42512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="498" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A498" s="11" t="s">
         <v>563</v>
       </c>
@@ -42598,7 +42593,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A499" s="11" t="s">
         <v>564</v>
       </c>
@@ -42679,7 +42674,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A500" s="11" t="s">
         <v>565</v>
       </c>
@@ -42760,7 +42755,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="501" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A501" s="11" t="s">
         <v>566</v>
       </c>
@@ -42842,37 +42837,37 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AA501"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.6640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.88671875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.88671875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.6640625" style="4" customWidth="1"/>
-    <col min="11" max="11" width="31.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.7109375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="2"/>
+    <col min="14" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="26.1" x14ac:dyDescent="0.2">
       <c r="A1" s="41" t="s">
         <v>600</v>
       </c>
@@ -42889,7 +42884,7 @@
       <c r="J1" s="41"/>
       <c r="K1" s="41"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -42917,7 +42912,7 @@
       </c>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
         <v>570</v>
       </c>
@@ -42951,7 +42946,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
         <v>572</v>
       </c>
@@ -42985,7 +42980,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
         <v>574</v>
       </c>
@@ -43013,7 +43008,7 @@
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>578</v>
       </c>
@@ -43047,7 +43042,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
         <v>580</v>
       </c>
@@ -43081,7 +43076,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>582</v>
       </c>
@@ -43096,7 +43091,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>583</v>
       </c>
@@ -43122,7 +43117,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>649</v>
       </c>
@@ -43150,7 +43145,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>650</v>
       </c>
@@ -43178,7 +43173,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>651</v>
       </c>
@@ -43206,7 +43201,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>652</v>
       </c>
@@ -43238,7 +43233,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -43248,7 +43243,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>592</v>
       </c>
@@ -43256,7 +43251,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>593</v>
       </c>
@@ -43282,7 +43277,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>585</v>
       </c>
@@ -43310,7 +43305,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>587</v>
       </c>
@@ -43338,7 +43333,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>589</v>
       </c>
@@ -43368,7 +43363,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>591</v>
       </c>
@@ -43403,7 +43398,7 @@
       </c>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" s="21" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="40" t="s">
         <v>598</v>
       </c>
@@ -43426,7 +43421,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -43437,7 +43432,7 @@
       <c r="J25" s="40"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -43448,7 +43443,7 @@
       <c r="J26" s="40"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -43456,7 +43451,7 @@
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="18.95" x14ac:dyDescent="0.2">
       <c r="A29" s="36" t="s">
         <v>645</v>
       </c>
@@ -43472,12 +43467,12 @@
       <c r="K29" s="38"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="18.95" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>602</v>
       </c>
@@ -43489,11 +43484,11 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K32" s="2"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
         <v>603</v>
       </c>
@@ -43522,7 +43517,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>604</v>
       </c>
@@ -43558,11 +43553,11 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="K35" s="2"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="29" t="s">
         <v>608</v>
       </c>
@@ -43591,7 +43586,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>610</v>
       </c>
@@ -43623,7 +43618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>611</v>
       </c>
@@ -43637,7 +43632,7 @@
       <c r="K38" s="2"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>612</v>
       </c>
@@ -43666,7 +43661,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>613</v>
       </c>
@@ -43696,7 +43691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>614</v>
       </c>
@@ -43725,7 +43720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="33" t="s">
         <v>628</v>
       </c>
@@ -43753,7 +43748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G43" s="2" t="s">
         <v>613</v>
       </c>
@@ -43773,7 +43768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="29" t="s">
         <v>615</v>
       </c>
@@ -43799,7 +43794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -43826,7 +43821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>616</v>
       </c>
@@ -43837,7 +43832,7 @@
       <c r="K46" s="2"/>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>584</v>
       </c>
@@ -43853,11 +43848,11 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K48" s="2"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>617</v>
       </c>
@@ -43880,7 +43875,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G50" s="2" t="s">
         <v>620</v>
       </c>
@@ -43901,7 +43896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="29" t="s">
         <v>621</v>
       </c>
@@ -43932,7 +43927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>620</v>
       </c>
@@ -43946,7 +43941,7 @@
       <c r="K52" s="2"/>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>618</v>
       </c>
@@ -43976,7 +43971,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G54" s="2" t="s">
         <v>623</v>
       </c>
@@ -43997,7 +43992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="29" t="s">
         <v>622</v>
       </c>
@@ -44027,7 +44022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>623</v>
       </c>
@@ -44041,7 +44036,7 @@
       <c r="K56" s="2"/>
       <c r="M56" s="28"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>618</v>
       </c>
@@ -44071,7 +44066,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G58" s="2" t="s">
         <v>623</v>
       </c>
@@ -44091,7 +44086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="29" t="s">
         <v>624</v>
       </c>
@@ -44120,7 +44115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>623</v>
       </c>
@@ -44133,7 +44128,7 @@
       <c r="K60" s="2"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>618</v>
       </c>
@@ -44162,7 +44157,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G62" s="2" t="s">
         <v>577</v>
       </c>
@@ -44182,7 +44177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>625</v>
       </c>
@@ -44211,7 +44206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>577</v>
       </c>
@@ -44224,7 +44219,7 @@
       <c r="K64" s="2"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>618</v>
       </c>
@@ -44242,11 +44237,11 @@
       </c>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K66" s="2"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G67" s="29" t="s">
         <v>576</v>
       </c>
@@ -44266,7 +44261,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G68" s="27">
         <f>D22</f>
         <v>4485.0000000000009</v>
@@ -44292,11 +44287,11 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K69" s="2"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G70" s="29" t="s">
         <v>603</v>
       </c>
@@ -44316,7 +44311,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G71" s="2" t="s">
         <v>631</v>
       </c>
@@ -44338,11 +44333,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K72" s="2"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G73" s="29" t="s">
         <v>608</v>
       </c>
@@ -44362,7 +44357,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G74" s="2" t="s">
         <v>610</v>
       </c>
@@ -44384,7 +44379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G75" s="2" t="s">
         <v>611</v>
       </c>
@@ -44405,7 +44400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G76" s="2" t="s">
         <v>612</v>
       </c>
@@ -44425,7 +44420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G77" s="2" t="s">
         <v>613</v>
       </c>
@@ -44447,7 +44442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G78" s="2" t="s">
         <v>614</v>
       </c>
@@ -44468,7 +44463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G79" s="33" t="s">
         <v>628</v>
       </c>
@@ -44490,11 +44485,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K80" s="2"/>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G81" s="6" t="s">
         <v>617</v>
       </c>
@@ -44503,11 +44498,11 @@
       </c>
       <c r="M81" s="4"/>
     </row>
-    <row r="82" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K82" s="2"/>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G83" s="29" t="s">
         <v>632</v>
       </c>
@@ -44527,7 +44522,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="84" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G84" s="2" t="s">
         <v>620</v>
       </c>
@@ -44547,7 +44542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G85" s="2" t="s">
         <v>618</v>
       </c>
@@ -44569,11 +44564,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K86" s="2"/>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G87" s="29" t="s">
         <v>633</v>
       </c>
@@ -44593,7 +44588,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="88" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G88" s="2" t="s">
         <v>623</v>
       </c>
@@ -44613,7 +44608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G89" s="2" t="s">
         <v>618</v>
       </c>
@@ -44634,11 +44629,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K90" s="2"/>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G91" s="29" t="s">
         <v>641</v>
       </c>
@@ -44658,7 +44653,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="92" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G92" s="2" t="s">
         <v>623</v>
       </c>
@@ -44678,7 +44673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G93" s="2" t="s">
         <v>618</v>
       </c>
@@ -44698,11 +44693,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K94" s="2"/>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G95" s="29" t="s">
         <v>643</v>
       </c>
@@ -44722,7 +44717,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="96" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G96" s="2" t="s">
         <v>577</v>
       </c>
@@ -44742,7 +44737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G97" s="2" t="s">
         <v>618</v>
       </c>
@@ -44762,11 +44757,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K98" s="2"/>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="7:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="99" spans="7:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="G99" s="31" t="s">
         <v>634</v>
       </c>
@@ -44775,12 +44770,12 @@
       </c>
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="7:13" x14ac:dyDescent="0.25">
       <c r="H100" s="32"/>
       <c r="K100" s="2"/>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G101" s="29" t="s">
         <v>576</v>
       </c>
@@ -44792,7 +44787,7 @@
       <c r="L101" s="32"/>
       <c r="M101" s="35"/>
     </row>
-    <row r="102" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G102" s="27">
         <f>G68</f>
         <v>4485.0000000000009</v>
@@ -44805,11 +44800,11 @@
       <c r="L102" s="27"/>
       <c r="M102" s="35"/>
     </row>
-    <row r="103" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K103" s="2"/>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G104" s="29" t="s">
         <v>608</v>
       </c>
@@ -44829,7 +44824,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="105" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G105" s="2" t="s">
         <v>647</v>
       </c>
@@ -44851,7 +44846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G106" s="2" t="s">
         <v>611</v>
       </c>
@@ -44872,7 +44867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G107" s="2" t="s">
         <v>612</v>
       </c>
@@ -44892,7 +44887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G108" s="2" t="s">
         <v>613</v>
       </c>
@@ -44914,7 +44909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G109" s="2" t="s">
         <v>614</v>
       </c>
@@ -44936,7 +44931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G110" s="33" t="s">
         <v>628</v>
       </c>
@@ -44958,11 +44953,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K111" s="2"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G112" s="6" t="s">
         <v>617</v>
       </c>
@@ -44971,11 +44966,11 @@
       </c>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K113" s="2"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G114" s="29" t="s">
         <v>635</v>
       </c>
@@ -44995,7 +44990,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="115" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G115" s="2" t="s">
         <v>620</v>
       </c>
@@ -45015,7 +45010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G116" s="2" t="s">
         <v>618</v>
       </c>
@@ -45037,11 +45032,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K117" s="2"/>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G118" s="29" t="s">
         <v>636</v>
       </c>
@@ -45061,7 +45056,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="119" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G119" s="2" t="s">
         <v>623</v>
       </c>
@@ -45081,7 +45076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G120" s="2" t="s">
         <v>618</v>
       </c>
@@ -45102,11 +45097,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K121" s="2"/>
       <c r="M121" s="4"/>
     </row>
-    <row r="122" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G122" s="29" t="s">
         <v>644</v>
       </c>
@@ -45126,7 +45121,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="123" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G123" s="2" t="s">
         <v>623</v>
       </c>
@@ -45146,7 +45141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G124" s="2" t="s">
         <v>618</v>
       </c>
@@ -45166,11 +45161,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="7:13" x14ac:dyDescent="0.25">
       <c r="K125" s="2"/>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G126" s="29" t="s">
         <v>646</v>
       </c>
@@ -45190,7 +45185,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="127" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G127" s="2" t="s">
         <v>577</v>
       </c>
@@ -45210,7 +45205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="7:13" x14ac:dyDescent="0.25">
       <c r="G128" s="2" t="s">
         <v>618</v>
       </c>

--- a/server/src/data/sampledata.xlsx
+++ b/server/src/data/sampledata.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Agent_system\p-agent-system\server\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441CD02C-7261-45CD-B86A-0496E7305DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="495" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-28920" yWindow="1140" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -13,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$AA$501</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2018,16 +2023,16 @@
     <t>TOTAL (EG 30% of GGR, 2% of total bets)</t>
   </si>
   <si>
-    <t>cm9v4w7uk008fiocn7yvxz283</t>
-  </si>
-  <si>
-    <t>cm9v56bl10026iozcn9qlokqu</t>
+    <t>cma3hbjdb0020io9vrj0usfnm</t>
+  </si>
+  <si>
+    <t>cma3h63q8000nio9vetirwy4k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
@@ -2635,53 +2640,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="W317" sqref="W317"/>
+    <sheetView tabSelected="1" topLeftCell="R277" workbookViewId="0">
+      <selection activeCell="Z298" sqref="Z298"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="36" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="36.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="21" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.85546875" style="2"/>
+    <col min="23" max="23" width="35.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2764,7 +2769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>716019323</v>
       </c>
@@ -2841,7 +2846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>685309795</v>
       </c>
@@ -2918,7 +2923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>960552293</v>
       </c>
@@ -2995,7 +3000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>125181251</v>
       </c>
@@ -3069,7 +3074,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>344485243</v>
       </c>
@@ -3146,7 +3151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>358868717</v>
       </c>
@@ -3223,7 +3228,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>365055317</v>
       </c>
@@ -3300,7 +3305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>466849204</v>
       </c>
@@ -3377,7 +3382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>577799495</v>
       </c>
@@ -3454,7 +3459,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>350035715</v>
       </c>
@@ -3531,7 +3536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>867536164</v>
       </c>
@@ -3605,7 +3610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>916307713</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>479686249</v>
       </c>
@@ -3756,7 +3761,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>340092959</v>
       </c>
@@ -3833,7 +3838,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>151403515</v>
       </c>
@@ -3910,7 +3915,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>845280410</v>
       </c>
@@ -3987,7 +3992,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>645482293</v>
       </c>
@@ -4064,7 +4069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>322439374</v>
       </c>
@@ -4141,7 +4146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>947912767</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>636037648</v>
       </c>
@@ -4295,7 +4300,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>263950584</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>167039211</v>
       </c>
@@ -4446,7 +4451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>580322910</v>
       </c>
@@ -4520,7 +4525,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>980973218</v>
       </c>
@@ -4597,7 +4602,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>533920119</v>
       </c>
@@ -4674,7 +4679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>74</v>
       </c>
@@ -4752,7 +4757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>76</v>
       </c>
@@ -4830,7 +4835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>77</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>78</v>
       </c>
@@ -4986,7 +4991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>79</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>85</v>
       </c>
@@ -5146,7 +5151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
@@ -5226,7 +5231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>89</v>
       </c>
@@ -5306,7 +5311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>90</v>
       </c>
@@ -5386,7 +5391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>91</v>
       </c>
@@ -5466,7 +5471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>92</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>93</v>
       </c>
@@ -5626,7 +5631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>94</v>
       </c>
@@ -5706,7 +5711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>95</v>
       </c>
@@ -5786,7 +5791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>96</v>
       </c>
@@ -5866,7 +5871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>97</v>
       </c>
@@ -5946,7 +5951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>98</v>
       </c>
@@ -6026,7 +6031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="9" t="s">
         <v>99</v>
       </c>
@@ -6106,7 +6111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
         <v>100</v>
       </c>
@@ -6186,7 +6191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>101</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>102</v>
       </c>
@@ -6346,7 +6351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>103</v>
       </c>
@@ -6426,7 +6431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>104</v>
       </c>
@@ -6506,7 +6511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>105</v>
       </c>
@@ -6586,7 +6591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>106</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>107</v>
       </c>
@@ -6746,7 +6751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
@@ -6826,7 +6831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>109</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>110</v>
       </c>
@@ -6986,7 +6991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>111</v>
       </c>
@@ -7066,7 +7071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>112</v>
       </c>
@@ -7146,7 +7151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>113</v>
       </c>
@@ -7226,7 +7231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>114</v>
       </c>
@@ -7306,7 +7311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>115</v>
       </c>
@@ -7386,7 +7391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>116</v>
       </c>
@@ -7466,7 +7471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>117</v>
       </c>
@@ -7546,7 +7551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>118</v>
       </c>
@@ -7626,7 +7631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>119</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>120</v>
       </c>
@@ -7786,7 +7791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>121</v>
       </c>
@@ -7866,7 +7871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>122</v>
       </c>
@@ -7946,7 +7951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>123</v>
       </c>
@@ -8026,7 +8031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>124</v>
       </c>
@@ -8106,7 +8111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>125</v>
       </c>
@@ -8186,7 +8191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
         <v>126</v>
       </c>
@@ -8266,7 +8271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
         <v>127</v>
       </c>
@@ -8346,7 +8351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="9" t="s">
         <v>128</v>
       </c>
@@ -8426,7 +8431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="9" t="s">
         <v>129</v>
       </c>
@@ -8506,7 +8511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
         <v>130</v>
       </c>
@@ -8586,7 +8591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="9" t="s">
         <v>131</v>
       </c>
@@ -8666,7 +8671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="9" t="s">
         <v>132</v>
       </c>
@@ -8746,7 +8751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
         <v>133</v>
       </c>
@@ -8826,7 +8831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
         <v>134</v>
       </c>
@@ -8906,7 +8911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
         <v>135</v>
       </c>
@@ -8986,7 +8991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
         <v>136</v>
       </c>
@@ -9066,7 +9071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
         <v>137</v>
       </c>
@@ -9146,7 +9151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="9" t="s">
         <v>138</v>
       </c>
@@ -9226,7 +9231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="9" t="s">
         <v>139</v>
       </c>
@@ -9306,7 +9311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="9" t="s">
         <v>140</v>
       </c>
@@ -9386,7 +9391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="9" t="s">
         <v>141</v>
       </c>
@@ -9466,7 +9471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
         <v>142</v>
       </c>
@@ -9546,7 +9551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="9" t="s">
         <v>143</v>
       </c>
@@ -9626,7 +9631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="9" t="s">
         <v>144</v>
       </c>
@@ -9706,7 +9711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
         <v>145</v>
       </c>
@@ -9786,7 +9791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
         <v>146</v>
       </c>
@@ -9866,7 +9871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="9" t="s">
         <v>147</v>
       </c>
@@ -9946,7 +9951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="9" t="s">
         <v>148</v>
       </c>
@@ -10026,7 +10031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="9" t="s">
         <v>149</v>
       </c>
@@ -10106,7 +10111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
         <v>150</v>
       </c>
@@ -10186,7 +10191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
         <v>151</v>
       </c>
@@ -10266,7 +10271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
         <v>152</v>
       </c>
@@ -10346,7 +10351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
         <v>153</v>
       </c>
@@ -10426,7 +10431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="9" t="s">
         <v>154</v>
       </c>
@@ -10506,7 +10511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
         <v>155</v>
       </c>
@@ -10586,7 +10591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
         <v>156</v>
       </c>
@@ -10666,7 +10671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="9" t="s">
         <v>157</v>
       </c>
@@ -10746,7 +10751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
         <v>158</v>
       </c>
@@ -10826,7 +10831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
         <v>159</v>
       </c>
@@ -10906,7 +10911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
         <v>160</v>
       </c>
@@ -10986,7 +10991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="9" t="s">
         <v>161</v>
       </c>
@@ -11066,7 +11071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
         <v>162</v>
       </c>
@@ -11146,7 +11151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
         <v>163</v>
       </c>
@@ -11226,7 +11231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="9" t="s">
         <v>164</v>
       </c>
@@ -11306,7 +11311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
         <v>165</v>
       </c>
@@ -11386,7 +11391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
         <v>166</v>
       </c>
@@ -11466,7 +11471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
         <v>167</v>
       </c>
@@ -11546,7 +11551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A113" s="9" t="s">
         <v>168</v>
       </c>
@@ -11626,7 +11631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
         <v>169</v>
       </c>
@@ -11706,7 +11711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A115" s="9" t="s">
         <v>170</v>
       </c>
@@ -11786,7 +11791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
         <v>171</v>
       </c>
@@ -11866,7 +11871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A117" s="9" t="s">
         <v>172</v>
       </c>
@@ -11946,7 +11951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A118" s="9" t="s">
         <v>173</v>
       </c>
@@ -12026,7 +12031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A119" s="9" t="s">
         <v>174</v>
       </c>
@@ -12106,7 +12111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A120" s="9" t="s">
         <v>175</v>
       </c>
@@ -12186,7 +12191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
         <v>176</v>
       </c>
@@ -12266,7 +12271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A122" s="9" t="s">
         <v>177</v>
       </c>
@@ -12346,7 +12351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A123" s="9" t="s">
         <v>178</v>
       </c>
@@ -12426,7 +12431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A124" s="9" t="s">
         <v>179</v>
       </c>
@@ -12506,7 +12511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A125" s="9" t="s">
         <v>180</v>
       </c>
@@ -12586,7 +12591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A126" s="9" t="s">
         <v>181</v>
       </c>
@@ -12666,7 +12671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A127" s="9" t="s">
         <v>182</v>
       </c>
@@ -12746,7 +12751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A128" s="9" t="s">
         <v>183</v>
       </c>
@@ -12826,7 +12831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
         <v>184</v>
       </c>
@@ -12906,7 +12911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A130" s="9" t="s">
         <v>185</v>
       </c>
@@ -12986,7 +12991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A131" s="9" t="s">
         <v>186</v>
       </c>
@@ -13066,7 +13071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A132" s="9" t="s">
         <v>187</v>
       </c>
@@ -13146,7 +13151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A133" s="9" t="s">
         <v>188</v>
       </c>
@@ -13226,7 +13231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A134" s="9" t="s">
         <v>189</v>
       </c>
@@ -13306,7 +13311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A135" s="9" t="s">
         <v>190</v>
       </c>
@@ -13386,7 +13391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A136" s="9" t="s">
         <v>191</v>
       </c>
@@ -13466,7 +13471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A137" s="9" t="s">
         <v>192</v>
       </c>
@@ -13546,7 +13551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
         <v>193</v>
       </c>
@@ -13626,7 +13631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
         <v>194</v>
       </c>
@@ -13706,7 +13711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A140" s="9" t="s">
         <v>195</v>
       </c>
@@ -13786,7 +13791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A141" s="9" t="s">
         <v>196</v>
       </c>
@@ -13866,7 +13871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A142" s="9" t="s">
         <v>197</v>
       </c>
@@ -13946,7 +13951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A143" s="9" t="s">
         <v>198</v>
       </c>
@@ -14026,7 +14031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A144" s="9" t="s">
         <v>199</v>
       </c>
@@ -14106,7 +14111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A145" s="9" t="s">
         <v>200</v>
       </c>
@@ -14186,7 +14191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A146" s="9" t="s">
         <v>201</v>
       </c>
@@ -14266,7 +14271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A147" s="9" t="s">
         <v>202</v>
       </c>
@@ -14346,7 +14351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A148" s="9" t="s">
         <v>203</v>
       </c>
@@ -14426,7 +14431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A149" s="9" t="s">
         <v>204</v>
       </c>
@@ -14506,7 +14511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
         <v>205</v>
       </c>
@@ -14586,7 +14591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A151" s="9" t="s">
         <v>206</v>
       </c>
@@ -14666,7 +14671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
         <v>207</v>
       </c>
@@ -14746,7 +14751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
         <v>208</v>
       </c>
@@ -14826,7 +14831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
         <v>209</v>
       </c>
@@ -14906,7 +14911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
         <v>210</v>
       </c>
@@ -14986,7 +14991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A156" s="9" t="s">
         <v>211</v>
       </c>
@@ -15066,7 +15071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
         <v>212</v>
       </c>
@@ -15146,7 +15151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A158" s="9" t="s">
         <v>213</v>
       </c>
@@ -15226,7 +15231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
         <v>214</v>
       </c>
@@ -15306,7 +15311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A160" s="9" t="s">
         <v>215</v>
       </c>
@@ -15386,7 +15391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A161" s="9" t="s">
         <v>216</v>
       </c>
@@ -15466,7 +15471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A162" s="9" t="s">
         <v>217</v>
       </c>
@@ -15546,7 +15551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A163" s="9" t="s">
         <v>218</v>
       </c>
@@ -15626,7 +15631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A164" s="9" t="s">
         <v>219</v>
       </c>
@@ -15706,7 +15711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A165" s="9" t="s">
         <v>220</v>
       </c>
@@ -15786,7 +15791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A166" s="9" t="s">
         <v>221</v>
       </c>
@@ -15866,7 +15871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A167" s="9" t="s">
         <v>222</v>
       </c>
@@ -15946,7 +15951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A168" s="9" t="s">
         <v>223</v>
       </c>
@@ -16026,7 +16031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A169" s="9" t="s">
         <v>224</v>
       </c>
@@ -16106,7 +16111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A170" s="9" t="s">
         <v>225</v>
       </c>
@@ -16186,7 +16191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A171" s="9" t="s">
         <v>226</v>
       </c>
@@ -16266,7 +16271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A172" s="9" t="s">
         <v>227</v>
       </c>
@@ -16346,7 +16351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A173" s="9" t="s">
         <v>228</v>
       </c>
@@ -16426,7 +16431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A174" s="9" t="s">
         <v>229</v>
       </c>
@@ -16506,7 +16511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A175" s="9" t="s">
         <v>230</v>
       </c>
@@ -16586,7 +16591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A176" s="9" t="s">
         <v>231</v>
       </c>
@@ -16666,7 +16671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A177" s="9" t="s">
         <v>232</v>
       </c>
@@ -16746,7 +16751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A178" s="9" t="s">
         <v>233</v>
       </c>
@@ -16826,7 +16831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A179" s="9" t="s">
         <v>234</v>
       </c>
@@ -16906,7 +16911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A180" s="9" t="s">
         <v>235</v>
       </c>
@@ -16986,7 +16991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A181" s="9" t="s">
         <v>236</v>
       </c>
@@ -17066,7 +17071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A182" s="9" t="s">
         <v>237</v>
       </c>
@@ -17146,7 +17151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A183" s="9" t="s">
         <v>238</v>
       </c>
@@ -17226,7 +17231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A184" s="9" t="s">
         <v>239</v>
       </c>
@@ -17306,7 +17311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A185" s="9" t="s">
         <v>240</v>
       </c>
@@ -17386,7 +17391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A186" s="9" t="s">
         <v>241</v>
       </c>
@@ -17466,7 +17471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A187" s="9" t="s">
         <v>242</v>
       </c>
@@ -17546,7 +17551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A188" s="9" t="s">
         <v>243</v>
       </c>
@@ -17626,7 +17631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A189" s="9" t="s">
         <v>244</v>
       </c>
@@ -17706,7 +17711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A190" s="9" t="s">
         <v>245</v>
       </c>
@@ -17786,7 +17791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A191" s="9" t="s">
         <v>246</v>
       </c>
@@ -17866,7 +17871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A192" s="9" t="s">
         <v>247</v>
       </c>
@@ -17946,7 +17951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A193" s="9" t="s">
         <v>248</v>
       </c>
@@ -18026,7 +18031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A194" s="9" t="s">
         <v>249</v>
       </c>
@@ -18106,7 +18111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A195" s="9" t="s">
         <v>250</v>
       </c>
@@ -18186,7 +18191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A196" s="9" t="s">
         <v>251</v>
       </c>
@@ -18266,7 +18271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A197" s="9" t="s">
         <v>252</v>
       </c>
@@ -18346,7 +18351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A198" s="9" t="s">
         <v>253</v>
       </c>
@@ -18426,7 +18431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A199" s="9" t="s">
         <v>254</v>
       </c>
@@ -18506,7 +18511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A200" s="9" t="s">
         <v>255</v>
       </c>
@@ -18586,7 +18591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A201" s="9" t="s">
         <v>256</v>
       </c>
@@ -18666,7 +18671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A202" s="9" t="s">
         <v>257</v>
       </c>
@@ -18746,7 +18751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A203" s="9" t="s">
         <v>258</v>
       </c>
@@ -18826,7 +18831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A204" s="9" t="s">
         <v>259</v>
       </c>
@@ -18906,7 +18911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A205" s="9" t="s">
         <v>260</v>
       </c>
@@ -18986,7 +18991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A206" s="9" t="s">
         <v>261</v>
       </c>
@@ -19066,7 +19071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A207" s="9" t="s">
         <v>262</v>
       </c>
@@ -19146,7 +19151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A208" s="9" t="s">
         <v>263</v>
       </c>
@@ -19226,7 +19231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A209" s="9" t="s">
         <v>264</v>
       </c>
@@ -19306,7 +19311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A210" s="9" t="s">
         <v>265</v>
       </c>
@@ -19386,7 +19391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A211" s="9" t="s">
         <v>266</v>
       </c>
@@ -19466,7 +19471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A212" s="9" t="s">
         <v>267</v>
       </c>
@@ -19546,7 +19551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A213" s="9" t="s">
         <v>268</v>
       </c>
@@ -19626,7 +19631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A214" s="9" t="s">
         <v>269</v>
       </c>
@@ -19706,7 +19711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A215" s="9" t="s">
         <v>270</v>
       </c>
@@ -19786,7 +19791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A216" s="9" t="s">
         <v>271</v>
       </c>
@@ -19866,7 +19871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A217" s="9" t="s">
         <v>272</v>
       </c>
@@ -19946,7 +19951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A218" s="9" t="s">
         <v>273</v>
       </c>
@@ -20026,7 +20031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A219" s="9" t="s">
         <v>274</v>
       </c>
@@ -20106,7 +20111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A220" s="9" t="s">
         <v>275</v>
       </c>
@@ -20186,7 +20191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A221" s="9" t="s">
         <v>276</v>
       </c>
@@ -20266,7 +20271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A222" s="9" t="s">
         <v>277</v>
       </c>
@@ -20346,7 +20351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A223" s="9" t="s">
         <v>278</v>
       </c>
@@ -20426,7 +20431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A224" s="9" t="s">
         <v>279</v>
       </c>
@@ -20506,7 +20511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A225" s="9" t="s">
         <v>280</v>
       </c>
@@ -20586,7 +20591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A226" s="9" t="s">
         <v>281</v>
       </c>
@@ -20666,7 +20671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A227" s="9" t="s">
         <v>282</v>
       </c>
@@ -20746,7 +20751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A228" s="9" t="s">
         <v>283</v>
       </c>
@@ -20826,7 +20831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A229" s="9" t="s">
         <v>284</v>
       </c>
@@ -20906,7 +20911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A230" s="9" t="s">
         <v>285</v>
       </c>
@@ -20986,7 +20991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A231" s="9" t="s">
         <v>286</v>
       </c>
@@ -21066,7 +21071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A232" s="9" t="s">
         <v>287</v>
       </c>
@@ -21146,7 +21151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A233" s="9" t="s">
         <v>288</v>
       </c>
@@ -21226,7 +21231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A234" s="9" t="s">
         <v>289</v>
       </c>
@@ -21306,7 +21311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A235" s="9" t="s">
         <v>290</v>
       </c>
@@ -21386,7 +21391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A236" s="9" t="s">
         <v>291</v>
       </c>
@@ -21466,7 +21471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A237" s="9" t="s">
         <v>292</v>
       </c>
@@ -21546,7 +21551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A238" s="9" t="s">
         <v>293</v>
       </c>
@@ -21626,7 +21631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A239" s="9" t="s">
         <v>294</v>
       </c>
@@ -21706,7 +21711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A240" s="9" t="s">
         <v>295</v>
       </c>
@@ -21786,7 +21791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A241" s="9" t="s">
         <v>296</v>
       </c>
@@ -21866,7 +21871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A242" s="9" t="s">
         <v>297</v>
       </c>
@@ -21946,7 +21951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A243" s="9" t="s">
         <v>298</v>
       </c>
@@ -22026,7 +22031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A244" s="9" t="s">
         <v>299</v>
       </c>
@@ -22106,7 +22111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A245" s="9" t="s">
         <v>300</v>
       </c>
@@ -22186,7 +22191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A246" s="9" t="s">
         <v>301</v>
       </c>
@@ -22266,7 +22271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A247" s="9" t="s">
         <v>302</v>
       </c>
@@ -22346,7 +22351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A248" s="9" t="s">
         <v>303</v>
       </c>
@@ -22426,7 +22431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A249" s="9" t="s">
         <v>304</v>
       </c>
@@ -22506,7 +22511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A250" s="9" t="s">
         <v>305</v>
       </c>
@@ -22586,7 +22591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A251" s="9" t="s">
         <v>306</v>
       </c>
@@ -22666,7 +22671,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A252" s="9" t="s">
         <v>307</v>
       </c>
@@ -22746,7 +22751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A253" s="9" t="s">
         <v>308</v>
       </c>
@@ -22826,7 +22831,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A254" s="9" t="s">
         <v>309</v>
       </c>
@@ -22906,7 +22911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A255" s="9" t="s">
         <v>310</v>
       </c>
@@ -22986,7 +22991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A256" s="9" t="s">
         <v>311</v>
       </c>
@@ -23066,7 +23071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A257" s="9" t="s">
         <v>312</v>
       </c>
@@ -23146,7 +23151,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A258" s="9" t="s">
         <v>313</v>
       </c>
@@ -23226,7 +23231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A259" s="9" t="s">
         <v>314</v>
       </c>
@@ -23306,7 +23311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A260" s="9" t="s">
         <v>315</v>
       </c>
@@ -23386,7 +23391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A261" s="9" t="s">
         <v>316</v>
       </c>
@@ -23466,7 +23471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A262" s="9" t="s">
         <v>317</v>
       </c>
@@ -23546,7 +23551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A263" s="9" t="s">
         <v>318</v>
       </c>
@@ -23626,7 +23631,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A264" s="9" t="s">
         <v>319</v>
       </c>
@@ -23706,7 +23711,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A265" s="9" t="s">
         <v>320</v>
       </c>
@@ -23786,7 +23791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A266" s="9" t="s">
         <v>321</v>
       </c>
@@ -23866,7 +23871,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A267" s="9" t="s">
         <v>322</v>
       </c>
@@ -23946,7 +23951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A268" s="9" t="s">
         <v>323</v>
       </c>
@@ -24026,7 +24031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A269" s="9" t="s">
         <v>324</v>
       </c>
@@ -24106,7 +24111,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A270" s="9" t="s">
         <v>325</v>
       </c>
@@ -24186,7 +24191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A271" s="9" t="s">
         <v>326</v>
       </c>
@@ -24266,7 +24271,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A272" s="9" t="s">
         <v>327</v>
       </c>
@@ -24346,7 +24351,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A273" s="9" t="s">
         <v>328</v>
       </c>
@@ -24426,7 +24431,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A274" s="9" t="s">
         <v>329</v>
       </c>
@@ -24506,7 +24511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A275" s="9" t="s">
         <v>330</v>
       </c>
@@ -24586,7 +24591,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="276" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A276" s="11" t="s">
         <v>331</v>
       </c>
@@ -24667,7 +24672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="277" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A277" s="11" t="s">
         <v>335</v>
       </c>
@@ -24746,7 +24751,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="278" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A278" s="11" t="s">
         <v>337</v>
       </c>
@@ -24825,7 +24830,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="279" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A279" s="11" t="s">
         <v>338</v>
       </c>
@@ -24906,7 +24911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="280" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A280" s="11" t="s">
         <v>341</v>
       </c>
@@ -24985,7 +24990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="281" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A281" s="11" t="s">
         <v>343</v>
       </c>
@@ -25064,7 +25069,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="282" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A282" s="11" t="s">
         <v>344</v>
       </c>
@@ -25145,7 +25150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="283" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A283" s="11" t="s">
         <v>345</v>
       </c>
@@ -25226,7 +25231,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="284" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A284" s="11" t="s">
         <v>346</v>
       </c>
@@ -25307,7 +25312,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="285" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A285" s="11" t="s">
         <v>349</v>
       </c>
@@ -25388,7 +25393,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="286" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A286" s="11">
         <v>68395402</v>
       </c>
@@ -25466,7 +25471,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="287" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A287" s="11">
         <v>268674073</v>
       </c>
@@ -25544,7 +25549,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="288" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A288" s="11">
         <v>163098956</v>
       </c>
@@ -25622,7 +25627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="289" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A289" s="11">
         <v>150564666</v>
       </c>
@@ -25700,7 +25705,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="290" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A290" s="11">
         <v>844109825</v>
       </c>
@@ -25778,7 +25783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="291" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A291" s="11">
         <v>524768582</v>
       </c>
@@ -25856,7 +25861,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="292" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A292" s="11">
         <v>334759451</v>
       </c>
@@ -25934,7 +25939,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="293" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A293" s="11">
         <v>654691481</v>
       </c>
@@ -26012,7 +26017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="294" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A294" s="11">
         <v>215114644</v>
       </c>
@@ -26090,7 +26095,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="295" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A295" s="11">
         <v>150434560</v>
       </c>
@@ -26168,7 +26173,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="296" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A296" s="11">
         <v>721572518</v>
       </c>
@@ -26246,7 +26251,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A297" s="11">
         <v>517640138</v>
       </c>
@@ -26324,7 +26329,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A298" s="11">
         <v>320740464</v>
       </c>
@@ -26402,7 +26407,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A299" s="11">
         <v>745586424</v>
       </c>
@@ -26480,7 +26485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A300" s="11">
         <v>655744342</v>
       </c>
@@ -26558,7 +26563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="301" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A301" s="11">
         <v>565874752</v>
       </c>
@@ -26636,7 +26641,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="302" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A302" s="11" t="s">
         <v>367</v>
       </c>
@@ -26717,7 +26722,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="303" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A303" s="11" t="s">
         <v>368</v>
       </c>
@@ -26798,7 +26803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="304" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A304" s="11" t="s">
         <v>369</v>
       </c>
@@ -26879,7 +26884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="305" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A305" s="11" t="s">
         <v>370</v>
       </c>
@@ -26960,7 +26965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="306" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A306" s="11" t="s">
         <v>371</v>
       </c>
@@ -27041,7 +27046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A307" s="11" t="s">
         <v>372</v>
       </c>
@@ -27122,7 +27127,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="308" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A308" s="11" t="s">
         <v>373</v>
       </c>
@@ -27203,7 +27208,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="309" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A309" s="11" t="s">
         <v>374</v>
       </c>
@@ -27284,7 +27289,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="310" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A310" s="11" t="s">
         <v>375</v>
       </c>
@@ -27365,7 +27370,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="311" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A311" s="11" t="s">
         <v>376</v>
       </c>
@@ -27446,7 +27451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="312" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A312" s="11" t="s">
         <v>377</v>
       </c>
@@ -27527,7 +27532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="313" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A313" s="11" t="s">
         <v>378</v>
       </c>
@@ -27608,7 +27613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="314" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A314" s="11" t="s">
         <v>379</v>
       </c>
@@ -27689,7 +27694,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="315" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A315" s="11" t="s">
         <v>380</v>
       </c>
@@ -27770,7 +27775,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="316" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A316" s="11" t="s">
         <v>381</v>
       </c>
@@ -27851,7 +27856,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="317" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A317" s="11" t="s">
         <v>382</v>
       </c>
@@ -27932,7 +27937,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="318" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A318" s="11" t="s">
         <v>383</v>
       </c>
@@ -28013,7 +28018,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="319" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A319" s="11" t="s">
         <v>384</v>
       </c>
@@ -28094,7 +28099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="320" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A320" s="11" t="s">
         <v>385</v>
       </c>
@@ -28175,7 +28180,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="321" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A321" s="11" t="s">
         <v>386</v>
       </c>
@@ -28256,7 +28261,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="322" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A322" s="11" t="s">
         <v>387</v>
       </c>
@@ -28337,7 +28342,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="323" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A323" s="11" t="s">
         <v>388</v>
       </c>
@@ -28418,7 +28423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A324" s="11" t="s">
         <v>389</v>
       </c>
@@ -28499,7 +28504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="325" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A325" s="11" t="s">
         <v>390</v>
       </c>
@@ -28580,7 +28585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="326" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A326" s="11" t="s">
         <v>391</v>
       </c>
@@ -28661,7 +28666,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="327" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A327" s="11" t="s">
         <v>392</v>
       </c>
@@ -28742,7 +28747,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="328" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A328" s="11" t="s">
         <v>393</v>
       </c>
@@ -28823,7 +28828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="329" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A329" s="11" t="s">
         <v>394</v>
       </c>
@@ -28904,7 +28909,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="330" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A330" s="11" t="s">
         <v>395</v>
       </c>
@@ -28985,7 +28990,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="331" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A331" s="11" t="s">
         <v>396</v>
       </c>
@@ -29066,7 +29071,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="332" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A332" s="11" t="s">
         <v>397</v>
       </c>
@@ -29147,7 +29152,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="333" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A333" s="11" t="s">
         <v>398</v>
       </c>
@@ -29228,7 +29233,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="334" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A334" s="11" t="s">
         <v>399</v>
       </c>
@@ -29309,7 +29314,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="335" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A335" s="11" t="s">
         <v>400</v>
       </c>
@@ -29390,7 +29395,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="336" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A336" s="11" t="s">
         <v>401</v>
       </c>
@@ -29471,7 +29476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="337" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A337" s="11" t="s">
         <v>402</v>
       </c>
@@ -29552,7 +29557,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A338" s="11" t="s">
         <v>403</v>
       </c>
@@ -29633,7 +29638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="339" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A339" s="11" t="s">
         <v>404</v>
       </c>
@@ -29714,7 +29719,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="340" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A340" s="11" t="s">
         <v>405</v>
       </c>
@@ -29795,7 +29800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="341" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A341" s="11" t="s">
         <v>406</v>
       </c>
@@ -29876,7 +29881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="342" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A342" s="11" t="s">
         <v>407</v>
       </c>
@@ -29957,7 +29962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="343" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A343" s="11" t="s">
         <v>408</v>
       </c>
@@ -30038,7 +30043,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="344" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A344" s="11" t="s">
         <v>409</v>
       </c>
@@ -30119,7 +30124,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="345" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A345" s="11" t="s">
         <v>410</v>
       </c>
@@ -30200,7 +30205,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="346" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A346" s="11" t="s">
         <v>411</v>
       </c>
@@ -30281,7 +30286,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="347" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A347" s="11" t="s">
         <v>412</v>
       </c>
@@ -30362,7 +30367,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="348" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A348" s="11" t="s">
         <v>413</v>
       </c>
@@ -30443,7 +30448,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="349" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A349" s="11" t="s">
         <v>414</v>
       </c>
@@ -30524,7 +30529,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="350" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A350" s="11" t="s">
         <v>415</v>
       </c>
@@ -30605,7 +30610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="351" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A351" s="11" t="s">
         <v>416</v>
       </c>
@@ -30686,7 +30691,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="352" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A352" s="11" t="s">
         <v>417</v>
       </c>
@@ -30767,7 +30772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="353" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A353" s="11" t="s">
         <v>418</v>
       </c>
@@ -30848,7 +30853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A354" s="11" t="s">
         <v>419</v>
       </c>
@@ -30929,7 +30934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A355" s="11" t="s">
         <v>420</v>
       </c>
@@ -31010,7 +31015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A356" s="11" t="s">
         <v>421</v>
       </c>
@@ -31091,7 +31096,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A357" s="11" t="s">
         <v>422</v>
       </c>
@@ -31172,7 +31177,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A358" s="11" t="s">
         <v>423</v>
       </c>
@@ -31253,7 +31258,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A359" s="11" t="s">
         <v>424</v>
       </c>
@@ -31334,7 +31339,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A360" s="11" t="s">
         <v>425</v>
       </c>
@@ -31415,7 +31420,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A361" s="11" t="s">
         <v>426</v>
       </c>
@@ -31496,7 +31501,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="362" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A362" s="11" t="s">
         <v>427</v>
       </c>
@@ -31577,7 +31582,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="363" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A363" s="11" t="s">
         <v>428</v>
       </c>
@@ -31658,7 +31663,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="364" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A364" s="11" t="s">
         <v>429</v>
       </c>
@@ -31739,7 +31744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="365" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A365" s="11" t="s">
         <v>430</v>
       </c>
@@ -31820,7 +31825,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="366" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A366" s="11" t="s">
         <v>431</v>
       </c>
@@ -31901,7 +31906,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="367" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A367" s="11" t="s">
         <v>432</v>
       </c>
@@ -31982,7 +31987,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="368" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A368" s="11" t="s">
         <v>433</v>
       </c>
@@ -32063,7 +32068,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="369" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A369" s="11" t="s">
         <v>434</v>
       </c>
@@ -32144,7 +32149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="370" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A370" s="11" t="s">
         <v>435</v>
       </c>
@@ -32225,7 +32230,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="371" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A371" s="11" t="s">
         <v>436</v>
       </c>
@@ -32306,7 +32311,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="372" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A372" s="11" t="s">
         <v>437</v>
       </c>
@@ -32387,7 +32392,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="373" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A373" s="11" t="s">
         <v>438</v>
       </c>
@@ -32468,7 +32473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="374" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A374" s="11" t="s">
         <v>439</v>
       </c>
@@ -32549,7 +32554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="375" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A375" s="11" t="s">
         <v>440</v>
       </c>
@@ -32630,7 +32635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="376" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A376" s="11" t="s">
         <v>441</v>
       </c>
@@ -32711,7 +32716,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="377" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A377" s="11" t="s">
         <v>442</v>
       </c>
@@ -32792,7 +32797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="378" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A378" s="11" t="s">
         <v>443</v>
       </c>
@@ -32873,7 +32878,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="379" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A379" s="11" t="s">
         <v>444</v>
       </c>
@@ -32954,7 +32959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="380" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A380" s="11" t="s">
         <v>445</v>
       </c>
@@ -33035,7 +33040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="381" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A381" s="11" t="s">
         <v>446</v>
       </c>
@@ -33116,7 +33121,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="382" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A382" s="11" t="s">
         <v>447</v>
       </c>
@@ -33197,7 +33202,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="383" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A383" s="11" t="s">
         <v>448</v>
       </c>
@@ -33278,7 +33283,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="384" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A384" s="11" t="s">
         <v>449</v>
       </c>
@@ -33359,7 +33364,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="385" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A385" s="11" t="s">
         <v>450</v>
       </c>
@@ -33440,7 +33445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="386" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A386" s="11" t="s">
         <v>451</v>
       </c>
@@ -33521,7 +33526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="387" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A387" s="11" t="s">
         <v>452</v>
       </c>
@@ -33602,7 +33607,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="388" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A388" s="11" t="s">
         <v>453</v>
       </c>
@@ -33683,7 +33688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="389" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A389" s="11" t="s">
         <v>454</v>
       </c>
@@ -33764,7 +33769,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A390" s="11" t="s">
         <v>455</v>
       </c>
@@ -33845,7 +33850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="391" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A391" s="11" t="s">
         <v>456</v>
       </c>
@@ -33926,7 +33931,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="392" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A392" s="11" t="s">
         <v>457</v>
       </c>
@@ -34007,7 +34012,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="393" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A393" s="11" t="s">
         <v>458</v>
       </c>
@@ -34088,7 +34093,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="394" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A394" s="11" t="s">
         <v>459</v>
       </c>
@@ -34169,7 +34174,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="395" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A395" s="11" t="s">
         <v>460</v>
       </c>
@@ -34250,7 +34255,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="396" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A396" s="11" t="s">
         <v>461</v>
       </c>
@@ -34331,7 +34336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="397" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A397" s="11" t="s">
         <v>462</v>
       </c>
@@ -34412,7 +34417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="398" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A398" s="11" t="s">
         <v>463</v>
       </c>
@@ -34493,7 +34498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="399" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A399" s="11" t="s">
         <v>464</v>
       </c>
@@ -34574,7 +34579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="400" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A400" s="11" t="s">
         <v>465</v>
       </c>
@@ -34655,7 +34660,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="401" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A401" s="11" t="s">
         <v>466</v>
       </c>
@@ -34736,7 +34741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="402" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A402" s="11" t="s">
         <v>467</v>
       </c>
@@ -34817,7 +34822,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="403" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A403" s="11" t="s">
         <v>468</v>
       </c>
@@ -34898,7 +34903,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="404" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A404" s="11" t="s">
         <v>469</v>
       </c>
@@ -34979,7 +34984,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="405" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A405" s="11" t="s">
         <v>470</v>
       </c>
@@ -35060,7 +35065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="406" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A406" s="11" t="s">
         <v>471</v>
       </c>
@@ -35141,7 +35146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="407" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A407" s="11" t="s">
         <v>472</v>
       </c>
@@ -35222,7 +35227,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="408" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A408" s="11" t="s">
         <v>473</v>
       </c>
@@ -35303,7 +35308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="409" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A409" s="11" t="s">
         <v>474</v>
       </c>
@@ -35384,7 +35389,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="410" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A410" s="11" t="s">
         <v>475</v>
       </c>
@@ -35465,7 +35470,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="411" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A411" s="11" t="s">
         <v>476</v>
       </c>
@@ -35546,7 +35551,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="412" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A412" s="11" t="s">
         <v>477</v>
       </c>
@@ -35627,7 +35632,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="413" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A413" s="11" t="s">
         <v>478</v>
       </c>
@@ -35708,7 +35713,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="414" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A414" s="11" t="s">
         <v>479</v>
       </c>
@@ -35789,7 +35794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="415" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A415" s="11" t="s">
         <v>480</v>
       </c>
@@ -35870,7 +35875,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="416" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A416" s="11" t="s">
         <v>481</v>
       </c>
@@ -35951,7 +35956,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="417" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A417" s="11" t="s">
         <v>482</v>
       </c>
@@ -36032,7 +36037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="418" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A418" s="11" t="s">
         <v>483</v>
       </c>
@@ -36113,7 +36118,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="419" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A419" s="11" t="s">
         <v>484</v>
       </c>
@@ -36194,7 +36199,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="420" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A420" s="11" t="s">
         <v>485</v>
       </c>
@@ -36275,7 +36280,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="421" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A421" s="11" t="s">
         <v>486</v>
       </c>
@@ -36356,7 +36361,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="422" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A422" s="11" t="s">
         <v>487</v>
       </c>
@@ -36437,7 +36442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="423" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A423" s="11" t="s">
         <v>488</v>
       </c>
@@ -36518,7 +36523,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="424" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A424" s="11" t="s">
         <v>489</v>
       </c>
@@ -36599,7 +36604,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="425" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A425" s="11" t="s">
         <v>490</v>
       </c>
@@ -36680,7 +36685,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="426" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A426" s="11" t="s">
         <v>491</v>
       </c>
@@ -36761,7 +36766,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="427" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A427" s="11" t="s">
         <v>492</v>
       </c>
@@ -36842,7 +36847,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="428" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A428" s="11" t="s">
         <v>493</v>
       </c>
@@ -36923,7 +36928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="429" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A429" s="11" t="s">
         <v>494</v>
       </c>
@@ -37004,7 +37009,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="430" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A430" s="11" t="s">
         <v>495</v>
       </c>
@@ -37085,7 +37090,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="431" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A431" s="11" t="s">
         <v>496</v>
       </c>
@@ -37166,7 +37171,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="432" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A432" s="11" t="s">
         <v>497</v>
       </c>
@@ -37247,7 +37252,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="433" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A433" s="11" t="s">
         <v>498</v>
       </c>
@@ -37328,7 +37333,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="434" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A434" s="11" t="s">
         <v>499</v>
       </c>
@@ -37409,7 +37414,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="435" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A435" s="11" t="s">
         <v>500</v>
       </c>
@@ -37490,7 +37495,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="436" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A436" s="11" t="s">
         <v>501</v>
       </c>
@@ -37571,7 +37576,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="437" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A437" s="11" t="s">
         <v>502</v>
       </c>
@@ -37652,7 +37657,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="438" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A438" s="11" t="s">
         <v>503</v>
       </c>
@@ -37733,7 +37738,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="439" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A439" s="11" t="s">
         <v>504</v>
       </c>
@@ -37814,7 +37819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="440" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A440" s="11" t="s">
         <v>505</v>
       </c>
@@ -37895,7 +37900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="441" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A441" s="11" t="s">
         <v>506</v>
       </c>
@@ -37976,7 +37981,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="442" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A442" s="11" t="s">
         <v>507</v>
       </c>
@@ -38057,7 +38062,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="443" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A443" s="11" t="s">
         <v>508</v>
       </c>
@@ -38138,7 +38143,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="444" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A444" s="11" t="s">
         <v>509</v>
       </c>
@@ -38219,7 +38224,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="445" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A445" s="11" t="s">
         <v>510</v>
       </c>
@@ -38300,7 +38305,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="446" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A446" s="11" t="s">
         <v>511</v>
       </c>
@@ -38381,7 +38386,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="447" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A447" s="11" t="s">
         <v>512</v>
       </c>
@@ -38462,7 +38467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="448" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A448" s="11" t="s">
         <v>513</v>
       </c>
@@ -38543,7 +38548,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="449" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A449" s="11" t="s">
         <v>514</v>
       </c>
@@ -38624,7 +38629,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="450" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A450" s="11" t="s">
         <v>515</v>
       </c>
@@ -38705,7 +38710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="451" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A451" s="11" t="s">
         <v>516</v>
       </c>
@@ -38786,7 +38791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="452" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A452" s="11" t="s">
         <v>517</v>
       </c>
@@ -38867,7 +38872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="453" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A453" s="11" t="s">
         <v>518</v>
       </c>
@@ -38948,7 +38953,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="454" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A454" s="11" t="s">
         <v>519</v>
       </c>
@@ -39029,7 +39034,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="455" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A455" s="11" t="s">
         <v>520</v>
       </c>
@@ -39110,7 +39115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="456" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A456" s="11" t="s">
         <v>521</v>
       </c>
@@ -39191,7 +39196,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="457" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A457" s="11" t="s">
         <v>522</v>
       </c>
@@ -39272,7 +39277,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="458" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A458" s="11" t="s">
         <v>523</v>
       </c>
@@ -39353,7 +39358,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="459" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A459" s="11" t="s">
         <v>524</v>
       </c>
@@ -39434,7 +39439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="460" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A460" s="11" t="s">
         <v>525</v>
       </c>
@@ -39515,7 +39520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="461" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A461" s="11" t="s">
         <v>526</v>
       </c>
@@ -39596,7 +39601,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="462" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A462" s="11" t="s">
         <v>527</v>
       </c>
@@ -39677,7 +39682,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="463" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A463" s="11" t="s">
         <v>528</v>
       </c>
@@ -39758,7 +39763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="464" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A464" s="11" t="s">
         <v>529</v>
       </c>
@@ -39839,7 +39844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="465" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A465" s="11" t="s">
         <v>530</v>
       </c>
@@ -39920,7 +39925,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="466" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A466" s="11" t="s">
         <v>531</v>
       </c>
@@ -40001,7 +40006,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="467" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A467" s="11" t="s">
         <v>532</v>
       </c>
@@ -40082,7 +40087,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="468" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A468" s="11" t="s">
         <v>533</v>
       </c>
@@ -40163,7 +40168,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="469" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A469" s="11" t="s">
         <v>534</v>
       </c>
@@ -40244,7 +40249,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="470" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A470" s="11" t="s">
         <v>535</v>
       </c>
@@ -40325,7 +40330,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="471" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A471" s="11" t="s">
         <v>536</v>
       </c>
@@ -40406,7 +40411,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="472" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A472" s="11" t="s">
         <v>537</v>
       </c>
@@ -40487,7 +40492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="473" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A473" s="11" t="s">
         <v>538</v>
       </c>
@@ -40568,7 +40573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="474" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A474" s="11" t="s">
         <v>539</v>
       </c>
@@ -40649,7 +40654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="475" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A475" s="11" t="s">
         <v>540</v>
       </c>
@@ -40730,7 +40735,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="476" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A476" s="11" t="s">
         <v>541</v>
       </c>
@@ -40811,7 +40816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="477" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A477" s="11" t="s">
         <v>542</v>
       </c>
@@ -40892,7 +40897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="478" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A478" s="11" t="s">
         <v>543</v>
       </c>
@@ -40973,7 +40978,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="479" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A479" s="11" t="s">
         <v>544</v>
       </c>
@@ -41054,7 +41059,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="480" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A480" s="11" t="s">
         <v>545</v>
       </c>
@@ -41135,7 +41140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="481" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A481" s="11" t="s">
         <v>546</v>
       </c>
@@ -41216,7 +41221,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="482" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A482" s="11" t="s">
         <v>547</v>
       </c>
@@ -41297,7 +41302,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="483" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A483" s="11" t="s">
         <v>548</v>
       </c>
@@ -41378,7 +41383,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="484" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A484" s="11" t="s">
         <v>549</v>
       </c>
@@ -41459,7 +41464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="485" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A485" s="11" t="s">
         <v>550</v>
       </c>
@@ -41540,7 +41545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="486" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A486" s="11" t="s">
         <v>551</v>
       </c>
@@ -41621,7 +41626,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="487" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A487" s="11" t="s">
         <v>552</v>
       </c>
@@ -41702,7 +41707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="488" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A488" s="11" t="s">
         <v>553</v>
       </c>
@@ -41783,7 +41788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="489" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A489" s="11" t="s">
         <v>554</v>
       </c>
@@ -41864,7 +41869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="490" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A490" s="11" t="s">
         <v>555</v>
       </c>
@@ -41945,7 +41950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="491" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A491" s="11" t="s">
         <v>556</v>
       </c>
@@ -42026,7 +42031,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="492" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A492" s="11" t="s">
         <v>557</v>
       </c>
@@ -42107,7 +42112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="493" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A493" s="11" t="s">
         <v>558</v>
       </c>
@@ -42188,7 +42193,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="494" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A494" s="11" t="s">
         <v>559</v>
       </c>
@@ -42269,7 +42274,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="495" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A495" s="11" t="s">
         <v>560</v>
       </c>
@@ -42350,7 +42355,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="496" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A496" s="11" t="s">
         <v>561</v>
       </c>
@@ -42431,7 +42436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="497" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A497" s="11" t="s">
         <v>562</v>
       </c>
@@ -42512,7 +42517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="498" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A498" s="11" t="s">
         <v>563</v>
       </c>
@@ -42593,7 +42598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="499" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A499" s="11" t="s">
         <v>564</v>
       </c>
@@ -42674,7 +42679,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="500" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A500" s="11" t="s">
         <v>565</v>
       </c>
@@ -42755,7 +42760,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="501" spans="1:27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A501" s="11" t="s">
         <v>566</v>
       </c>
@@ -42837,37 +42842,37 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AA501"/>
+  <autoFilter ref="A1:AA501" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M128"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="16.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="31.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.88671875" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="43.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.6640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="31.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="2"/>
+    <col min="14" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="13" customFormat="1" ht="26.1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="13" customFormat="1" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
         <v>600</v>
       </c>
@@ -42884,7 +42889,7 @@
       <c r="J1" s="41"/>
       <c r="K1" s="41"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
@@ -42912,7 +42917,7 @@
       </c>
       <c r="K3" s="18"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>570</v>
       </c>
@@ -42946,7 +42951,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>572</v>
       </c>
@@ -42980,7 +42985,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="16" t="s">
         <v>574</v>
       </c>
@@ -43008,7 +43013,7 @@
       </c>
       <c r="K7" s="18"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>578</v>
       </c>
@@ -43042,7 +43047,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>580</v>
       </c>
@@ -43076,7 +43081,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>582</v>
       </c>
@@ -43091,7 +43096,7 @@
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>583</v>
       </c>
@@ -43117,7 +43122,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>649</v>
       </c>
@@ -43145,7 +43150,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>650</v>
       </c>
@@ -43173,7 +43178,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>651</v>
       </c>
@@ -43201,7 +43206,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>652</v>
       </c>
@@ -43233,7 +43238,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -43243,7 +43248,7 @@
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
         <v>592</v>
       </c>
@@ -43251,7 +43256,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>593</v>
       </c>
@@ -43277,7 +43282,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>585</v>
       </c>
@@ -43305,7 +43310,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>587</v>
       </c>
@@ -43333,7 +43338,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>589</v>
       </c>
@@ -43363,7 +43368,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>591</v>
       </c>
@@ -43398,7 +43403,7 @@
       </c>
       <c r="K23" s="26"/>
     </row>
-    <row r="24" spans="1:13" s="21" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" s="21" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="40" t="s">
         <v>598</v>
       </c>
@@ -43421,7 +43426,7 @@
       </c>
       <c r="K24" s="14"/>
     </row>
-    <row r="25" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -43432,7 +43437,7 @@
       <c r="J25" s="40"/>
       <c r="K25" s="14"/>
     </row>
-    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -43443,7 +43448,7 @@
       <c r="J26" s="40"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="40"/>
       <c r="C27" s="40"/>
       <c r="D27" s="40"/>
@@ -43451,7 +43456,7 @@
       <c r="I27" s="40"/>
       <c r="J27" s="40"/>
     </row>
-    <row r="29" spans="1:13" ht="18.95" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
         <v>645</v>
       </c>
@@ -43467,12 +43472,12 @@
       <c r="K29" s="38"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.95" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>602</v>
       </c>
@@ -43484,11 +43489,11 @@
       </c>
       <c r="M31" s="4"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K32" s="2"/>
       <c r="M32" s="4"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>603</v>
       </c>
@@ -43517,7 +43522,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>604</v>
       </c>
@@ -43553,11 +43558,11 @@
         <v>3675</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K35" s="2"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="29" t="s">
         <v>608</v>
       </c>
@@ -43586,7 +43591,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>610</v>
       </c>
@@ -43618,7 +43623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>611</v>
       </c>
@@ -43632,7 +43637,7 @@
       <c r="K38" s="2"/>
       <c r="M38" s="4"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>612</v>
       </c>
@@ -43661,7 +43666,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>613</v>
       </c>
@@ -43691,7 +43696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>614</v>
       </c>
@@ -43720,7 +43725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
         <v>628</v>
       </c>
@@ -43748,7 +43753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G43" s="2" t="s">
         <v>613</v>
       </c>
@@ -43768,7 +43773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>615</v>
       </c>
@@ -43794,7 +43799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>6</v>
       </c>
@@ -43821,7 +43826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>616</v>
       </c>
@@ -43832,7 +43837,7 @@
       <c r="K46" s="2"/>
       <c r="M46" s="4"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>584</v>
       </c>
@@ -43848,11 +43853,11 @@
       </c>
       <c r="M47" s="4"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K48" s="2"/>
       <c r="M48" s="4"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>617</v>
       </c>
@@ -43875,7 +43880,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G50" s="2" t="s">
         <v>620</v>
       </c>
@@ -43896,7 +43901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="29" t="s">
         <v>621</v>
       </c>
@@ -43927,7 +43932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>620</v>
       </c>
@@ -43941,7 +43946,7 @@
       <c r="K52" s="2"/>
       <c r="M52" s="4"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>618</v>
       </c>
@@ -43971,7 +43976,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G54" s="2" t="s">
         <v>623</v>
       </c>
@@ -43992,7 +43997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="29" t="s">
         <v>622</v>
       </c>
@@ -44022,7 +44027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>623</v>
       </c>
@@ -44036,7 +44041,7 @@
       <c r="K56" s="2"/>
       <c r="M56" s="28"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>618</v>
       </c>
@@ -44066,7 +44071,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G58" s="2" t="s">
         <v>623</v>
       </c>
@@ -44086,7 +44091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>624</v>
       </c>
@@ -44115,7 +44120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>623</v>
       </c>
@@ -44128,7 +44133,7 @@
       <c r="K60" s="2"/>
       <c r="M60" s="4"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>618</v>
       </c>
@@ -44157,7 +44162,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G62" s="2" t="s">
         <v>577</v>
       </c>
@@ -44177,7 +44182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="29" t="s">
         <v>625</v>
       </c>
@@ -44206,7 +44211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>577</v>
       </c>
@@ -44219,7 +44224,7 @@
       <c r="K64" s="2"/>
       <c r="M64" s="4"/>
     </row>
-    <row r="65" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>618</v>
       </c>
@@ -44237,11 +44242,11 @@
       </c>
       <c r="M65" s="4"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K66" s="2"/>
       <c r="M66" s="4"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G67" s="29" t="s">
         <v>576</v>
       </c>
@@ -44261,7 +44266,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G68" s="27">
         <f>D22</f>
         <v>4485.0000000000009</v>
@@ -44287,11 +44292,11 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K69" s="2"/>
       <c r="M69" s="4"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G70" s="29" t="s">
         <v>603</v>
       </c>
@@ -44311,7 +44316,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G71" s="2" t="s">
         <v>631</v>
       </c>
@@ -44333,11 +44338,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K72" s="2"/>
       <c r="M72" s="4"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G73" s="29" t="s">
         <v>608</v>
       </c>
@@ -44357,7 +44362,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G74" s="2" t="s">
         <v>610</v>
       </c>
@@ -44379,7 +44384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G75" s="2" t="s">
         <v>611</v>
       </c>
@@ -44400,7 +44405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G76" s="2" t="s">
         <v>612</v>
       </c>
@@ -44420,7 +44425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G77" s="2" t="s">
         <v>613</v>
       </c>
@@ -44442,7 +44447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G78" s="2" t="s">
         <v>614</v>
       </c>
@@ -44463,7 +44468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G79" s="33" t="s">
         <v>628</v>
       </c>
@@ -44485,11 +44490,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="K80" s="2"/>
       <c r="M80" s="4"/>
     </row>
-    <row r="81" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G81" s="6" t="s">
         <v>617</v>
       </c>
@@ -44498,11 +44503,11 @@
       </c>
       <c r="M81" s="4"/>
     </row>
-    <row r="82" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K82" s="2"/>
       <c r="M82" s="4"/>
     </row>
-    <row r="83" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G83" s="29" t="s">
         <v>632</v>
       </c>
@@ -44522,7 +44527,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="84" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G84" s="2" t="s">
         <v>620</v>
       </c>
@@ -44542,7 +44547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G85" s="2" t="s">
         <v>618</v>
       </c>
@@ -44564,11 +44569,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K86" s="2"/>
       <c r="M86" s="4"/>
     </row>
-    <row r="87" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G87" s="29" t="s">
         <v>633</v>
       </c>
@@ -44588,7 +44593,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="88" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G88" s="2" t="s">
         <v>623</v>
       </c>
@@ -44608,7 +44613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G89" s="2" t="s">
         <v>618</v>
       </c>
@@ -44629,11 +44634,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K90" s="2"/>
       <c r="M90" s="4"/>
     </row>
-    <row r="91" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G91" s="29" t="s">
         <v>641</v>
       </c>
@@ -44653,7 +44658,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="92" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G92" s="2" t="s">
         <v>623</v>
       </c>
@@ -44673,7 +44678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G93" s="2" t="s">
         <v>618</v>
       </c>
@@ -44693,11 +44698,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K94" s="2"/>
       <c r="M94" s="4"/>
     </row>
-    <row r="95" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G95" s="29" t="s">
         <v>643</v>
       </c>
@@ -44717,7 +44722,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="96" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G96" s="2" t="s">
         <v>577</v>
       </c>
@@ -44737,7 +44742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G97" s="2" t="s">
         <v>618</v>
       </c>
@@ -44757,11 +44762,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K98" s="2"/>
       <c r="M98" s="4"/>
     </row>
-    <row r="99" spans="7:13" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:13" ht="18" x14ac:dyDescent="0.3">
       <c r="G99" s="31" t="s">
         <v>634</v>
       </c>
@@ -44770,12 +44775,12 @@
       </c>
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:13" x14ac:dyDescent="0.3">
       <c r="H100" s="32"/>
       <c r="K100" s="2"/>
       <c r="M100" s="4"/>
     </row>
-    <row r="101" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G101" s="29" t="s">
         <v>576</v>
       </c>
@@ -44787,7 +44792,7 @@
       <c r="L101" s="32"/>
       <c r="M101" s="35"/>
     </row>
-    <row r="102" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G102" s="27">
         <f>G68</f>
         <v>4485.0000000000009</v>
@@ -44800,11 +44805,11 @@
       <c r="L102" s="27"/>
       <c r="M102" s="35"/>
     </row>
-    <row r="103" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K103" s="2"/>
       <c r="M103" s="4"/>
     </row>
-    <row r="104" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G104" s="29" t="s">
         <v>608</v>
       </c>
@@ -44824,7 +44829,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="105" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G105" s="2" t="s">
         <v>647</v>
       </c>
@@ -44846,7 +44851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G106" s="2" t="s">
         <v>611</v>
       </c>
@@ -44867,7 +44872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G107" s="2" t="s">
         <v>612</v>
       </c>
@@ -44887,7 +44892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G108" s="2" t="s">
         <v>613</v>
       </c>
@@ -44909,7 +44914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G109" s="2" t="s">
         <v>614</v>
       </c>
@@ -44931,7 +44936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G110" s="33" t="s">
         <v>628</v>
       </c>
@@ -44953,11 +44958,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K111" s="2"/>
       <c r="M111" s="4"/>
     </row>
-    <row r="112" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G112" s="6" t="s">
         <v>617</v>
       </c>
@@ -44966,11 +44971,11 @@
       </c>
       <c r="M112" s="4"/>
     </row>
-    <row r="113" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K113" s="2"/>
       <c r="M113" s="4"/>
     </row>
-    <row r="114" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G114" s="29" t="s">
         <v>635</v>
       </c>
@@ -44990,7 +44995,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="115" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G115" s="2" t="s">
         <v>620</v>
       </c>
@@ -45010,7 +45015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G116" s="2" t="s">
         <v>618</v>
       </c>
@@ -45032,11 +45037,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K117" s="2"/>
       <c r="M117" s="4"/>
     </row>
-    <row r="118" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G118" s="29" t="s">
         <v>636</v>
       </c>
@@ -45056,7 +45061,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="119" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G119" s="2" t="s">
         <v>623</v>
       </c>
@@ -45076,7 +45081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G120" s="2" t="s">
         <v>618</v>
       </c>
@@ -45097,11 +45102,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K121" s="2"/>
       <c r="M121" s="4"/>
     </row>
-    <row r="122" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G122" s="29" t="s">
         <v>644</v>
       </c>
@@ -45121,7 +45126,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="123" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G123" s="2" t="s">
         <v>623</v>
       </c>
@@ -45141,7 +45146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G124" s="2" t="s">
         <v>618</v>
       </c>
@@ -45161,11 +45166,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:13" x14ac:dyDescent="0.3">
       <c r="K125" s="2"/>
       <c r="M125" s="4"/>
     </row>
-    <row r="126" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G126" s="29" t="s">
         <v>646</v>
       </c>
@@ -45185,7 +45190,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="127" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G127" s="2" t="s">
         <v>577</v>
       </c>
@@ -45205,7 +45210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G128" s="2" t="s">
         <v>618</v>
       </c>
